--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -4,35 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6550"/>
+    <workbookView windowWidth="28800" windowHeight="12210" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Q5Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q5" sheetId="2" r:id="rId2"/>
+    <sheet name="Q7" sheetId="3" r:id="rId3"/>
+    <sheet name="Q10" sheetId="4" r:id="rId4"/>
+    <sheet name="Q11" sheetId="5" r:id="rId5"/>
+    <sheet name="Q14" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="94">
   <si>
     <r>
       <rPr>
@@ -528,31 +518,39 @@
   <si>
     <t>Below 215 Cut-off</t>
   </si>
+  <si>
+    <t>Cum Bad Rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="0.000%"/>
     <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.000%"/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -569,15 +567,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -585,14 +578,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -600,7 +593,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -608,7 +601,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -616,7 +609,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -624,7 +617,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -632,14 +625,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -647,7 +640,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -655,7 +648,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -663,14 +656,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -678,52 +671,58 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -912,7 +911,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -933,6 +932,26 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -962,21 +981,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -997,6 +1001,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,7 +1143,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1136,263 +1155,337 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{732A5AD5-B588-4C92-876B-92D77CE460ED}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1682,793 +1775,793 @@
   <sheetPr/>
   <dimension ref="B1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="S98" sqref="S98"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="8.54545454545454" customWidth="1"/>
+    <col min="2" max="2" width="18.5428571428571" customWidth="1"/>
+    <col min="3" max="3" width="8.54285714285714" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.54545454545455" customWidth="1"/>
-    <col min="6" max="6" width="7.81818181818182" customWidth="1"/>
-    <col min="7" max="7" width="7.72727272727273" customWidth="1"/>
-    <col min="8" max="8" width="8.18181818181818" customWidth="1"/>
-    <col min="9" max="9" width="8.27272727272727" customWidth="1"/>
-    <col min="10" max="10" width="5.81818181818182" customWidth="1"/>
-    <col min="11" max="11" width="5.90909090909091" customWidth="1"/>
-    <col min="12" max="12" width="6.09090909090909" customWidth="1"/>
-    <col min="13" max="13" width="5.81818181818182" customWidth="1"/>
-    <col min="14" max="14" width="5.72727272727273" customWidth="1"/>
-    <col min="15" max="15" width="5.81818181818182" customWidth="1"/>
-    <col min="16" max="16" width="5.90909090909091" customWidth="1"/>
-    <col min="17" max="17" width="5.81818181818182" customWidth="1"/>
+    <col min="5" max="5" width="7.54285714285714" customWidth="1"/>
+    <col min="6" max="6" width="7.81904761904762" customWidth="1"/>
+    <col min="7" max="7" width="7.72380952380952" customWidth="1"/>
+    <col min="8" max="8" width="8.18095238095238" customWidth="1"/>
+    <col min="9" max="9" width="8.27619047619048" customWidth="1"/>
+    <col min="10" max="10" width="5.81904761904762" customWidth="1"/>
+    <col min="11" max="11" width="5.90476190476191" customWidth="1"/>
+    <col min="12" max="12" width="6.09523809523809" customWidth="1"/>
+    <col min="13" max="13" width="5.81904761904762" customWidth="1"/>
+    <col min="14" max="14" width="5.72380952380952" customWidth="1"/>
+    <col min="15" max="15" width="5.81904761904762" customWidth="1"/>
+    <col min="16" max="16" width="5.90476190476191" customWidth="1"/>
+    <col min="17" max="17" width="5.81904761904762" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="4" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="37">
         <v>9802</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="39">
         <v>0.2959</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="37">
         <v>1865</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="37">
         <v>7937</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="39">
         <v>0.1903</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="7">
+      <c r="H3" s="37"/>
+      <c r="I3" s="40">
         <v>1731</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="40">
         <v>134</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7">
+      <c r="K3" s="40"/>
+      <c r="L3" s="40">
         <v>12.918</v>
       </c>
     </row>
     <row r="4" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="37">
         <v>11802</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="39">
         <v>0.3563</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="37">
         <v>10662</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="37">
         <v>1140</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="39">
         <v>0.9034</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="7">
+      <c r="H4" s="37"/>
+      <c r="I4" s="40">
         <v>9781</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="40">
         <v>881</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7">
+      <c r="K4" s="40"/>
+      <c r="L4" s="40">
         <v>11.102</v>
       </c>
     </row>
     <row r="5" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="37">
         <v>10411</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="39">
         <v>0.3143</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="37">
         <v>9804</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="37">
         <v>607</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="39">
         <v>0.9417</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="7">
+      <c r="H5" s="37"/>
+      <c r="I5" s="40">
         <v>9357</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="40">
         <v>447</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7">
+      <c r="K5" s="40"/>
+      <c r="L5" s="40">
         <v>20.933</v>
       </c>
     </row>
     <row r="6" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="37">
         <v>1107</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="39">
         <v>0.0334</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="37">
         <v>1054</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="37">
         <v>53</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="39">
         <v>0.9521</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="7">
+      <c r="H6" s="37"/>
+      <c r="I6" s="40">
         <v>1029</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="40">
         <v>25</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7">
+      <c r="K6" s="40"/>
+      <c r="L6" s="40">
         <v>41.16</v>
       </c>
     </row>
     <row r="7" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="37">
         <v>33122</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="41">
         <v>1.03</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="37">
         <v>23385</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="37">
         <v>9737</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="39">
         <v>0.706</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5">
+      <c r="H8" s="37"/>
+      <c r="I8" s="37">
         <v>21898</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="37">
         <v>1487</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="7">
+      <c r="K8" s="37"/>
+      <c r="L8" s="40">
         <v>14.726</v>
       </c>
     </row>
-    <row r="11" ht="14.5" spans="3:3">
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" ht="14.5" spans="2:9">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+    <row r="11" spans="3:3">
+      <c r="C11" s="44"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="14.5" spans="2:9">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="2:9">
+      <c r="B13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="45">
         <f>0.3*L3</f>
         <v>3.8754</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="46">
         <f>F3-E13</f>
         <v>6309</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="46">
         <f>ROUND(F3/(1+C13),0)</f>
         <v>1628</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18">
+      <c r="F13" s="27"/>
+      <c r="G13" s="47">
         <f>I3+D13</f>
         <v>8040</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="47">
         <f>J3+E13</f>
         <v>1762</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="52">
         <f>G13/H13</f>
         <v>4.56299659477866</v>
       </c>
     </row>
-    <row r="14" ht="14.5" spans="2:9">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="2:9">
+      <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="45">
         <f>0.3*L4</f>
         <v>3.3306</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="46">
         <f>F4-E14</f>
         <v>877</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="46">
         <f>ROUND(F4/(1+C14),0)</f>
         <v>263</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18">
+      <c r="F14" s="27"/>
+      <c r="G14" s="47">
         <f>I4+D14</f>
         <v>10658</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="47">
         <f>J4+E14</f>
         <v>1144</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="52">
         <f>G14/H14</f>
         <v>9.31643356643357</v>
       </c>
     </row>
-    <row r="15" ht="14.5" spans="2:9">
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="2:9">
+      <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="45">
         <f>0.3*L5</f>
         <v>6.2799</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="46">
         <f>F5-E15</f>
         <v>524</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="46">
         <f>ROUND(F5/(1+C15),0)</f>
         <v>83</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18">
+      <c r="F15" s="27"/>
+      <c r="G15" s="47">
         <f>I5+D15</f>
         <v>9881</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="47">
         <f>J5+E15</f>
         <v>530</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="52">
         <f>G15/H15</f>
         <v>18.6433962264151</v>
       </c>
     </row>
-    <row r="16" ht="14.5" spans="2:9">
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="2:9">
+      <c r="B16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="45">
         <f>0.3*L6</f>
         <v>12.348</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="46">
         <f>F6-E16</f>
         <v>49</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="46">
         <f>ROUND(F6/(1+C16),0)</f>
         <v>4</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18">
+      <c r="F16" s="27"/>
+      <c r="G16" s="47">
         <f>I6+D16</f>
         <v>1078</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="47">
         <f>J6+E16</f>
         <v>29</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="52">
         <f>G16/H16</f>
         <v>37.1724137931034</v>
       </c>
     </row>
-    <row r="17" ht="14.5" spans="2:9">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" ht="14.5" spans="2:9">
-      <c r="B18" s="19" t="s">
+    <row r="17" spans="2:9">
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="23">
         <f>SUM(C13:C17)</f>
         <v>25.8339</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="33">
         <f>SUM(D13:D16)</f>
         <v>7759</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="33">
         <f>SUM(E13:E17)</f>
         <v>1978</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="21">
+      <c r="F18" s="23"/>
+      <c r="G18" s="33">
         <f>SUM(G13:G17)</f>
         <v>29657</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="33">
         <f>SUM(H13:H17)</f>
         <v>3465</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="34">
         <f>G18/H18</f>
         <v>8.55901875901876</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="14.5" spans="2:17">
-      <c r="B21" s="22" t="s">
+    <row r="21" s="42" customFormat="1" spans="2:17">
+      <c r="B21" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="49">
         <v>20</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="49">
         <v>21</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="49">
         <v>22</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="49">
         <v>23</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="49">
         <v>24</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N21" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="P21" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="Q21" s="49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="14.5" spans="2:17">
-      <c r="B22" s="22" t="s">
+    <row r="22" s="42" customFormat="1" spans="2:17">
+      <c r="B22" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="49">
         <v>2</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="49">
         <v>4</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="49">
         <v>3</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="49">
         <v>4</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="49">
         <v>8</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="49">
         <v>15</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="49">
         <v>32</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="49">
         <v>17</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="49">
         <v>92</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="49">
         <v>101</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="49">
         <v>73</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="49">
         <v>50</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="49">
         <v>45</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="49">
         <v>47</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="49">
         <v>7</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="14.5" spans="2:17">
-      <c r="B23" s="22" t="s">
+    <row r="23" s="42" customFormat="1" spans="2:17">
+      <c r="B23" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="49">
         <v>7</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="49">
         <v>23</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="49">
         <v>28</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="49">
         <v>54</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="49">
         <v>55</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="49">
         <v>64</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="49">
         <v>339</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="49">
         <v>331</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="49">
         <v>914</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="49">
         <v>1417</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="49">
         <v>784</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="49">
         <v>770</v>
       </c>
-      <c r="O23" s="23">
+      <c r="O23" s="49">
         <v>534</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="49">
         <v>605</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="Q23" s="49">
         <v>175</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="14.5" spans="2:17">
-      <c r="B24" s="24" t="s">
+    <row r="24" s="42" customFormat="1" spans="2:17">
+      <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="2">
         <f>C22+C23</f>
         <v>9</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="2">
         <f t="shared" ref="D24:Q24" si="0">D22+D23</f>
         <v>27</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="2">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="2">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="2">
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="2">
         <f t="shared" si="0"/>
         <v>1518</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="2">
         <f t="shared" si="0"/>
         <v>857</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="2">
         <f t="shared" si="0"/>
         <v>820</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="2">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="2">
         <f t="shared" si="0"/>
         <v>652</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="2">
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="14.5" spans="2:17">
-      <c r="B25" s="2" t="s">
+    <row r="25" s="43" customFormat="1" spans="2:17">
+      <c r="B25" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="43">
         <f>C32/C33</f>
         <v>0.222222222222222</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="43">
         <f t="shared" ref="D25:Q25" si="1">D32/D33</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="43">
         <f t="shared" si="1"/>
         <v>0.134328358208955</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="43">
         <f t="shared" si="1"/>
         <v>0.104</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="43">
         <f t="shared" si="1"/>
         <v>0.111702127659574</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="43">
         <f t="shared" si="1"/>
         <v>0.134831460674157</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="43">
         <f t="shared" si="1"/>
         <v>0.106583072100313</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="43">
         <f t="shared" si="1"/>
         <v>0.0862068965517241</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="43">
         <f t="shared" si="1"/>
         <v>0.088855421686747</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="43">
         <f t="shared" si="1"/>
         <v>0.0792022792022792</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="43">
         <f t="shared" si="1"/>
         <v>0.0803755438516144</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="43">
         <f t="shared" si="1"/>
         <v>0.0773086562560247</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="43">
         <f t="shared" si="1"/>
         <v>0.0773499826569546</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="43">
         <f t="shared" si="1"/>
         <v>0.0768152072296666</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="43">
         <f t="shared" si="1"/>
         <v>0.0757575757575758</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="14.5" spans="8:17">
-      <c r="H26" s="2">
+    <row r="26" s="43" customFormat="1" spans="8:17">
+      <c r="H26" s="43">
         <f>H34/H35</f>
         <v>0.189873417721519</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="43">
         <f t="shared" ref="I26:Q26" si="2">I34/I35</f>
         <v>0.104444444444444</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="43">
         <f t="shared" si="2"/>
         <v>0.0802005012531328</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="43">
         <f t="shared" si="2"/>
         <v>0.0864745011086474</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="43">
         <f t="shared" si="2"/>
         <v>0.0773630343166767</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="43">
         <f t="shared" si="2"/>
         <v>0.0789662598707825</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="43">
         <f t="shared" si="2"/>
         <v>0.0760152030406081</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="43">
         <f t="shared" si="2"/>
         <v>0.0761921835783435</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="43">
         <f t="shared" si="2"/>
         <v>0.0757624398073836</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="43">
         <f t="shared" si="2"/>
         <v>0.0747036805988771</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="14.5" spans="12:17">
-      <c r="L27" s="2">
+    <row r="27" s="43" customFormat="1" spans="12:17">
+      <c r="L27" s="43">
         <f t="shared" ref="L27:Q27" si="3">L36/L37</f>
         <v>0.0665349143610013</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="43">
         <f t="shared" si="3"/>
         <v>0.0732631578947368</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="43">
         <f t="shared" si="3"/>
         <v>0.0701095461658842</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="43">
         <f t="shared" si="3"/>
         <v>0.0712771595124536</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="43">
         <f t="shared" si="3"/>
         <v>0.0713962946226841</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="43">
         <f t="shared" si="3"/>
         <v>0.0700954861111111</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="14.5" spans="16:17">
-      <c r="P28" s="2">
+    <row r="28" s="43" customFormat="1" spans="16:17">
+      <c r="P28" s="43">
         <f>P38/P39</f>
         <v>0.0720858895705521</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="43">
         <f>Q38/Q39</f>
         <v>0.0647482014388489</v>
       </c>
@@ -2753,860 +2846,860 @@
         <v>834</v>
       </c>
     </row>
-    <row r="42" ht="14.5" spans="2:10">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24" t="s">
+    <row r="42" spans="2:10">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" ht="14.5" spans="2:10">
-      <c r="B43" s="24" t="s">
+    <row r="43" spans="2:10">
+      <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="2">
         <v>0.42</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="2">
         <v>0.486</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="2">
         <v>27</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="2">
         <v>0.066</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="2">
         <v>1.782</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="44">
         <f>D43-C43</f>
         <v>0.066</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="44">
         <f>LN(D43/C43)</f>
         <v>0.14595391262308</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="44">
         <f>H43*I43</f>
         <v>0.00963295823312327</v>
       </c>
     </row>
-    <row r="44" ht="14.5" spans="2:10">
-      <c r="B44" s="24" t="s">
+    <row r="44" spans="2:10">
+      <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="2">
         <v>0.33</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="2">
         <v>0.272</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="2">
         <v>17</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="2">
         <v>-0.058</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="2">
         <v>-0.986</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="44">
         <f>D44-C44</f>
         <v>-0.058</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="44">
         <f>LN(D44/C44)</f>
         <v>-0.193290588164529</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="44">
         <f>H44*I44</f>
         <v>0.0112108541135427</v>
       </c>
     </row>
-    <row r="45" ht="14.5" spans="2:10">
-      <c r="B45" s="24" t="s">
+    <row r="45" spans="2:10">
+      <c r="B45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="2">
         <v>0.22</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="2">
         <v>0.152</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="2">
         <v>6</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="2">
         <v>-0.068</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="2">
         <v>-0.408</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="44">
         <f>D45-C45</f>
         <v>-0.068</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="44">
         <f>LN(D45/C45)</f>
         <v>-0.369747025506085</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="44">
         <f>H45*I45</f>
         <v>0.0251427977344138</v>
       </c>
     </row>
-    <row r="46" ht="14.5" spans="2:10">
-      <c r="B46" s="24" t="s">
+    <row r="46" spans="2:10">
+      <c r="B46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="2">
         <v>0.03</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="2">
         <v>0.09</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="2">
         <v>15</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="2">
         <v>0.06</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="2">
         <v>0.9</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="44">
         <f>D46-C46</f>
         <v>0.06</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="44">
         <f>LN(D46/C46)</f>
         <v>1.09861228866811</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="44">
         <f>H46*I46</f>
         <v>0.0659167373200866</v>
       </c>
     </row>
-    <row r="47" ht="14.5" spans="2:10">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" ht="14.5" spans="2:10">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24">
+    <row r="47" spans="2:10">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2">
         <v>1.288</v>
       </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10">
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44">
         <f>SUM(J43:J47)</f>
         <v>0.111903347401166</v>
       </c>
     </row>
-    <row r="51" ht="14.5" spans="2:6">
-      <c r="B51" s="24" t="s">
+    <row r="51" spans="2:6">
+      <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" ht="14.5" spans="2:6">
-      <c r="B52" s="24" t="s">
+    <row r="52" spans="2:6">
+      <c r="B52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="2">
         <v>1694</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="2">
         <f>5979-E52-C52</f>
         <v>189</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="2">
         <v>4096</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="2">
         <f>SUM(C52:E52)</f>
         <v>5979</v>
       </c>
     </row>
-    <row r="53" ht="14.5" spans="2:6">
-      <c r="B53" s="24" t="s">
+    <row r="53" spans="2:6">
+      <c r="B53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="2">
         <v>394</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="2">
         <v>12</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="2">
         <f>495-D53-C53</f>
         <v>89</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="2">
         <f>SUM(C53:E53)</f>
         <v>495</v>
       </c>
     </row>
-    <row r="54" ht="14.5" spans="2:6">
-      <c r="B54" s="24" t="s">
+    <row r="54" spans="2:6">
+      <c r="B54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="2">
         <v>1731.1</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="2">
         <v>192.4</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="2">
         <v>4060.2</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="2">
         <f>SUM(C54:E54)</f>
         <v>5983.7</v>
       </c>
     </row>
-    <row r="55" ht="14.5" spans="2:6">
-      <c r="B55" s="24" t="s">
+    <row r="55" spans="2:6">
+      <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="2">
         <v>357.1</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="2">
         <v>8.9</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="2">
         <v>124.3</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="2">
         <f>SUM(C55:E55)</f>
         <v>490.3</v>
       </c>
     </row>
-    <row r="56" ht="14.5" spans="2:6">
-      <c r="B56" s="24" t="s">
+    <row r="56" spans="2:6">
+      <c r="B56" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="2">
         <f>SUM(C52:C55)</f>
         <v>4176.2</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="2">
         <f>SUM(D52:D55)</f>
         <v>402.3</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="2">
         <f>SUM(E52:E55)</f>
         <v>8369.5</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="2">
         <f ca="1">SUM(F52:F56)</f>
         <v>12948</v>
       </c>
     </row>
-    <row r="57" ht="14.5" spans="2:6">
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" ht="14.5" spans="2:6">
-      <c r="B58" s="25" t="s">
+    <row r="57" spans="2:6">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="42"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="25">
+      <c r="C58" s="50">
         <f>C52/$F52*100</f>
         <v>28.3324970730891</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D58" s="50">
         <f>D52/$F52*100</f>
         <v>3.16106372303061</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="50">
         <f>E52/$F52*100</f>
         <v>68.5064392038802</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F58" s="51">
         <f>SUM(C58:E58)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="59" ht="14.5" spans="2:6">
-      <c r="B59" s="25" t="s">
+    <row r="59" spans="2:6">
+      <c r="B59" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="50">
         <f>C53/$F53*100</f>
         <v>79.5959595959596</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="50">
         <f>D53/$F53*100</f>
         <v>2.42424242424242</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="50">
         <f>E53/$F53*100</f>
         <v>17.979797979798</v>
       </c>
-      <c r="F59" s="26">
+      <c r="F59" s="51">
         <f>SUM(C59:E59)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="60" ht="14.5" spans="2:6">
-      <c r="B60" s="25" t="s">
+    <row r="60" spans="2:6">
+      <c r="B60" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="25">
+      <c r="C60" s="50">
         <f>LN((C58/F58)/(C59/F59))</f>
         <v>-1.03295388039815</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D60" s="50">
         <f>LN((D58/F58)/(D59/F59))</f>
         <v>0.265389518959428</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E60" s="50">
         <f>LN((E58/F58)/(E59/F59))</f>
         <v>1.33767895067499</v>
       </c>
-      <c r="F60" s="26"/>
-    </row>
-    <row r="61" ht="14.5" spans="2:6">
-      <c r="B61" s="25" t="s">
+      <c r="F60" s="51"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C61" s="50">
         <f>C54/$F54*100</f>
         <v>28.9302605411368</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="50">
         <f>D54/$F54*100</f>
         <v>3.21540184166987</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="50">
         <f>E54/$F54*100</f>
         <v>67.8543376171934</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="51">
         <f>SUM(C61:E61)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="62" ht="14.5" spans="2:6">
-      <c r="B62" s="25" t="s">
+    <row r="62" spans="2:6">
+      <c r="B62" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="25">
+      <c r="C62" s="50">
         <f>C55/$F55*100</f>
         <v>72.8329594126045</v>
       </c>
-      <c r="D62" s="25">
+      <c r="D62" s="50">
         <f>D55/$F55*100</f>
         <v>1.81521517438303</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E62" s="50">
         <f>E55/$F55*100</f>
         <v>25.3518254130124</v>
       </c>
-      <c r="F62" s="26">
+      <c r="F62" s="51">
         <f>SUM(C62:E62)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="63" ht="14.5" spans="2:6">
-      <c r="B63" s="25" t="s">
+    <row r="63" spans="2:6">
+      <c r="B63" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="25">
+      <c r="C63" s="50">
         <f>LN(C61*$F61/(C62*$F62))</f>
         <v>-0.923280467068269</v>
       </c>
-      <c r="D63" s="25">
+      <c r="D63" s="50">
         <f>LN(D61*$F61/(D62*$F62))</f>
         <v>0.571748325442962</v>
       </c>
-      <c r="E63" s="25">
+      <c r="E63" s="50">
         <f>LN(E61*$F61/(E62*$F62))</f>
         <v>0.984512577899019</v>
       </c>
-      <c r="F63" s="25"/>
-    </row>
-    <row r="64" ht="14.5" spans="2:6">
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-    </row>
-    <row r="65" ht="14.5" spans="2:6">
-      <c r="B65" s="24" t="s">
+      <c r="F63" s="50"/>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E65" s="24" t="s">
+      <c r="E65" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F65" s="24" t="s">
+      <c r="F65" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" ht="14.5" spans="2:6">
-      <c r="B66" s="24" t="s">
+    <row r="66" spans="2:6">
+      <c r="B66" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="24">
+      <c r="C66" s="2">
         <f>(C60-C63)*20/LN(2)</f>
         <v>-3.16450579056764</v>
       </c>
-      <c r="D66" s="24">
+      <c r="D66" s="2">
         <v>-37.1</v>
       </c>
-      <c r="E66" s="24">
+      <c r="E66" s="2">
         <f>[1]Sheet1!$C$12820+C66</f>
         <v>127.387157367327</v>
       </c>
-      <c r="F66" s="24">
+      <c r="F66" s="2">
         <v>4.09</v>
       </c>
     </row>
-    <row r="67" ht="14.5" spans="2:6">
-      <c r="B67" s="24" t="s">
+    <row r="67" spans="2:6">
+      <c r="B67" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="2">
         <f>(D60-D63)*20/LN(2)</f>
         <v>-8.83964661692911</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D67" s="2">
         <f>D52-D54</f>
         <v>-3.40000000000001</v>
       </c>
-      <c r="E67" s="24">
+      <c r="E67" s="2">
         <f>[1]Sheet1!$C$12820+C67</f>
         <v>121.712016540966</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F67" s="2">
         <v>0.43</v>
       </c>
     </row>
-    <row r="68" ht="14.5" spans="2:6">
-      <c r="B68" s="24" t="s">
+    <row r="68" spans="2:6">
+      <c r="B68" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="24">
+      <c r="C68" s="2">
         <v>10.19</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D68" s="2">
         <v>35.8</v>
       </c>
-      <c r="E68" s="24">
+      <c r="E68" s="2">
         <f>[1]Sheet1!$C$12820+C68</f>
         <v>140.741663157895</v>
       </c>
-      <c r="F68" s="24">
+      <c r="F68" s="2">
         <f>2*((E52*LN(E52/E54))+(E53*LN(E53/E55)))</f>
         <v>12.4517657178232</v>
       </c>
     </row>
-    <row r="69" ht="14.5" spans="2:6">
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="71" ht="14.5" spans="2:9">
-      <c r="B71" s="24" t="s">
+    <row r="69" spans="2:6">
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E71" s="24" t="s">
+      <c r="E71" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F71" s="24" t="s">
+      <c r="F71" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-    </row>
-    <row r="72" ht="14.5" spans="2:9">
-      <c r="B72" s="24" t="s">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C72" s="2">
         <v>8117</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D72" s="2">
         <v>84</v>
       </c>
-      <c r="E72" s="24">
+      <c r="E72" s="2">
         <v>8033</v>
       </c>
-      <c r="F72" s="29">
+      <c r="F72" s="53">
         <f>D72/$C72</f>
         <v>0.0103486509794259</v>
       </c>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-    </row>
-    <row r="73" ht="14.5" spans="2:9">
-      <c r="B73" s="24" t="s">
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="24">
+      <c r="C73" s="2">
         <v>6432</v>
       </c>
-      <c r="D73" s="24">
+      <c r="D73" s="2">
         <v>134</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E73" s="2">
         <v>6298</v>
       </c>
-      <c r="F73" s="29">
+      <c r="F73" s="53">
         <f t="shared" ref="F73:F79" si="8">D73/$C73</f>
         <v>0.0208333333333333</v>
       </c>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-    </row>
-    <row r="74" ht="14.5" spans="2:9">
-      <c r="B74" s="24" t="s">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="24">
+      <c r="C74" s="2">
         <v>7897</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D74" s="2">
         <v>795</v>
       </c>
-      <c r="E74" s="24">
+      <c r="E74" s="2">
         <v>7102</v>
       </c>
-      <c r="F74" s="29">
+      <c r="F74" s="53">
         <f t="shared" si="8"/>
         <v>0.100671140939597</v>
       </c>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-    </row>
-    <row r="75" ht="14.5" spans="2:9">
-      <c r="B75" s="24" t="s">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="2">
         <v>6737</v>
       </c>
-      <c r="D75" s="24">
+      <c r="D75" s="2">
         <v>6535</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E75" s="2">
         <v>202</v>
       </c>
-      <c r="F75" s="29">
+      <c r="F75" s="53">
         <f t="shared" si="8"/>
         <v>0.970016327742318</v>
       </c>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-    </row>
-    <row r="76" ht="14.5" spans="2:9">
-      <c r="B76" s="24" t="s">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="24">
+      <c r="C76" s="2">
         <v>5984</v>
       </c>
-      <c r="D76" s="24">
+      <c r="D76" s="2">
         <v>5893</v>
       </c>
-      <c r="E76" s="24">
+      <c r="E76" s="2">
         <v>91</v>
       </c>
-      <c r="F76" s="29">
+      <c r="F76" s="53">
         <f t="shared" si="8"/>
         <v>0.984792780748663</v>
       </c>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-    </row>
-    <row r="77" ht="14.5" spans="2:9">
-      <c r="B77" s="24" t="s">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="24">
+      <c r="C77" s="2">
         <v>9791</v>
       </c>
-      <c r="D77" s="24">
+      <c r="D77" s="2">
         <v>9687</v>
       </c>
-      <c r="E77" s="24">
+      <c r="E77" s="2">
         <v>104</v>
       </c>
-      <c r="F77" s="29">
+      <c r="F77" s="53">
         <f t="shared" si="8"/>
         <v>0.989378000204269</v>
       </c>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-    </row>
-    <row r="78" ht="14.5" spans="2:9">
-      <c r="B78" s="24" t="s">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="24">
+      <c r="C78" s="2">
         <v>8479</v>
       </c>
-      <c r="D78" s="24">
+      <c r="D78" s="2">
         <v>8403</v>
       </c>
-      <c r="E78" s="24">
+      <c r="E78" s="2">
         <v>76</v>
       </c>
-      <c r="F78" s="29">
+      <c r="F78" s="53">
         <f t="shared" si="8"/>
         <v>0.991036678853638</v>
       </c>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-    </row>
-    <row r="79" ht="14.5" spans="2:9">
-      <c r="B79" s="24" t="s">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="2">
         <v>16841</v>
       </c>
-      <c r="D79" s="24">
+      <c r="D79" s="2">
         <v>16770</v>
       </c>
-      <c r="E79" s="24">
+      <c r="E79" s="2">
         <v>71</v>
       </c>
-      <c r="F79" s="29">
+      <c r="F79" s="53">
         <f t="shared" si="8"/>
         <v>0.995784098331453</v>
       </c>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-    </row>
-    <row r="80" ht="14.5" spans="2:9">
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-    </row>
-    <row r="81" ht="14.5" spans="2:9">
-      <c r="B81" s="24" t="s">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="2">
         <v>70278</v>
       </c>
-      <c r="D81" s="24">
+      <c r="D81" s="2">
         <v>48301</v>
       </c>
-      <c r="E81" s="24">
+      <c r="E81" s="2">
         <v>21977</v>
       </c>
-      <c r="F81" s="29">
+      <c r="F81" s="53">
         <f>D81/C81</f>
         <v>0.687284783289223</v>
       </c>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-    </row>
-    <row r="82" ht="14.5" spans="2:9">
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-    </row>
-    <row r="83" ht="14.5" spans="2:9">
-      <c r="B83" s="24" t="s">
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="2">
         <f>SUM(C75:C79)</f>
         <v>47832</v>
       </c>
-      <c r="D83" s="24">
+      <c r="D83" s="2">
         <f>SUM(D75:D79)</f>
         <v>47288</v>
       </c>
-      <c r="E83" s="24">
+      <c r="E83" s="2">
         <f>SUM(E75:E79)</f>
         <v>544</v>
       </c>
-      <c r="F83" s="29">
+      <c r="F83" s="53">
         <f>D83/C83</f>
         <v>0.988626860679043</v>
       </c>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24" t="s">
+      <c r="G83" s="2"/>
+      <c r="H83" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I83" s="24"/>
-    </row>
-    <row r="84" ht="14.5" spans="2:9">
-      <c r="B84" s="24" t="s">
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C84" s="24">
+      <c r="C84" s="2">
         <f>C81-C83</f>
         <v>22446</v>
       </c>
-      <c r="D84" s="24">
+      <c r="D84" s="2">
         <f>D81-D83</f>
         <v>1013</v>
       </c>
-      <c r="E84" s="24">
+      <c r="E84" s="2">
         <f>E81-E83</f>
         <v>21433</v>
       </c>
-      <c r="F84" s="29">
+      <c r="F84" s="53">
         <f>D84/C84</f>
         <v>0.0451305355074401</v>
       </c>
-      <c r="G84" s="24"/>
-      <c r="H84" s="29">
+      <c r="G84" s="2"/>
+      <c r="H84" s="53">
         <f>D84/C84</f>
         <v>0.0451305355074401</v>
       </c>
-      <c r="I84" s="24"/>
-    </row>
-    <row r="85" ht="14.5" spans="2:9">
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-    </row>
-    <row r="86" ht="14.5" spans="2:9">
-      <c r="B86" s="24" t="s">
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="24">
+      <c r="C86" s="2">
         <f>SUM(C74:C79)</f>
         <v>55729</v>
       </c>
-      <c r="D86" s="24">
+      <c r="D86" s="2">
         <f>SUM(D74:D79)</f>
         <v>48083</v>
       </c>
-      <c r="E86" s="24">
+      <c r="E86" s="2">
         <f>SUM(E74:E79)</f>
         <v>7646</v>
       </c>
-      <c r="F86" s="29">
+      <c r="F86" s="53">
         <f>D86/C86</f>
         <v>0.862800337346803</v>
       </c>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24" t="s">
+      <c r="G86" s="2"/>
+      <c r="H86" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I86" s="24"/>
-    </row>
-    <row r="87" ht="14.5" spans="2:9">
-      <c r="B87" s="24" t="s">
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="2">
         <f>C81-C86</f>
         <v>14549</v>
       </c>
-      <c r="D87" s="24">
+      <c r="D87" s="2">
         <f>D81-D86</f>
         <v>218</v>
       </c>
-      <c r="E87" s="24">
+      <c r="E87" s="2">
         <f>E81-E86</f>
         <v>14331</v>
       </c>
-      <c r="F87" s="29">
+      <c r="F87" s="53">
         <f>D87/C87</f>
         <v>0.0149838476871263</v>
       </c>
-      <c r="G87" s="24"/>
-      <c r="H87" s="29">
+      <c r="G87" s="2"/>
+      <c r="H87" s="53">
         <f>C86/C81</f>
         <v>0.792979310737357</v>
       </c>
-      <c r="I87" s="24"/>
+      <c r="I87" s="2"/>
     </row>
     <row r="90" spans="2:17">
       <c r="B90" t="s">
@@ -3812,232 +3905,232 @@
       <c r="B94" t="s">
         <v>42</v>
       </c>
-      <c r="C94" s="30">
+      <c r="C94" s="54">
         <v>0.222222222222222</v>
       </c>
-      <c r="D94" s="30">
+      <c r="D94" s="54">
         <v>0.166666666666667</v>
       </c>
-      <c r="E94" s="30">
+      <c r="E94" s="54">
         <v>0.134328358208955</v>
       </c>
-      <c r="F94" s="30">
+      <c r="F94" s="54">
         <v>0.104</v>
       </c>
-      <c r="G94" s="30">
+      <c r="G94" s="54">
         <v>0.111702127659574</v>
       </c>
-      <c r="H94" s="30">
+      <c r="H94" s="54">
         <v>0.134831460674157</v>
       </c>
-      <c r="I94" s="30">
+      <c r="I94" s="54">
         <v>0.106583072100313</v>
       </c>
-      <c r="J94" s="30">
+      <c r="J94" s="54">
         <v>0.0862068965517241</v>
       </c>
-      <c r="K94" s="30">
+      <c r="K94" s="54">
         <v>0.088855421686747</v>
       </c>
-      <c r="L94" s="30">
+      <c r="L94" s="54">
         <v>0.0792022792022792</v>
       </c>
-      <c r="M94" s="30">
+      <c r="M94" s="54">
         <v>0.0803755438516144</v>
       </c>
-      <c r="N94" s="30">
+      <c r="N94" s="54">
         <v>0.0773086562560247</v>
       </c>
-      <c r="O94" s="30">
+      <c r="O94" s="54">
         <v>0.0773499826569546</v>
       </c>
-      <c r="P94" s="30">
+      <c r="P94" s="54">
         <v>0.0768152072296666</v>
       </c>
-      <c r="Q94" s="30">
+      <c r="Q94" s="54">
         <v>0.0757575757575758</v>
       </c>
     </row>
     <row r="95" spans="3:17">
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30">
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54">
         <f t="shared" ref="E95:Q95" si="9">E103/E104</f>
         <v>0.0967741935483871</v>
       </c>
-      <c r="F95" s="30">
+      <c r="F95" s="54">
         <f t="shared" si="9"/>
         <v>0.0786516853932584</v>
       </c>
-      <c r="G95" s="30">
+      <c r="G95" s="54">
         <f t="shared" si="9"/>
         <v>0.0986842105263158</v>
       </c>
-      <c r="H95" s="30">
+      <c r="H95" s="54">
         <f t="shared" si="9"/>
         <v>0.12987012987013</v>
       </c>
-      <c r="I95" s="30">
+      <c r="I95" s="54">
         <f t="shared" si="9"/>
         <v>0.102990033222591</v>
       </c>
-      <c r="J95" s="30">
+      <c r="J95" s="54">
         <f t="shared" si="9"/>
         <v>0.0831578947368421</v>
       </c>
-      <c r="K95" s="30">
+      <c r="K95" s="54">
         <f t="shared" si="9"/>
         <v>0.0874233128834356</v>
       </c>
-      <c r="L95" s="30">
+      <c r="L95" s="54">
         <f t="shared" si="9"/>
         <v>0.0782959124928037</v>
       </c>
-      <c r="M95" s="30">
+      <c r="M95" s="54">
         <f t="shared" si="9"/>
         <v>0.0796582775340568</v>
       </c>
-      <c r="N95" s="30">
+      <c r="N95" s="54">
         <f t="shared" si="9"/>
         <v>0.0766841390021355</v>
       </c>
-      <c r="O95" s="30">
+      <c r="O95" s="54">
         <f t="shared" si="9"/>
         <v>0.0767888307155323</v>
       </c>
-      <c r="P95" s="30">
+      <c r="P95" s="54">
         <f t="shared" si="9"/>
         <v>0.0763083672829834</v>
       </c>
-      <c r="Q95" s="30">
+      <c r="Q95" s="54">
         <f t="shared" si="9"/>
         <v>0.0752589884216941</v>
       </c>
     </row>
     <row r="96" spans="3:17">
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30">
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="54">
         <f>I105/I106</f>
         <v>0.0862533692722372</v>
       </c>
-      <c r="J96" s="30">
+      <c r="J96" s="54">
         <f t="shared" ref="J96:Q96" si="10">J105/J106</f>
         <v>0.0681502086230876</v>
       </c>
-      <c r="K96" s="30">
+      <c r="K96" s="54">
         <f t="shared" si="10"/>
         <v>0.0817391304347826</v>
       </c>
-      <c r="L96" s="30">
+      <c r="L96" s="54">
         <f t="shared" si="10"/>
         <v>0.0746222633364169</v>
       </c>
-      <c r="M96" s="30">
+      <c r="M96" s="54">
         <f t="shared" si="10"/>
         <v>0.0768292682926829</v>
       </c>
-      <c r="N96" s="30">
+      <c r="N96" s="54">
         <f t="shared" si="10"/>
         <v>0.0741869918699187</v>
       </c>
-      <c r="O96" s="30">
+      <c r="O96" s="54">
         <f t="shared" si="10"/>
         <v>0.0745590107292235</v>
       </c>
-      <c r="P96" s="30">
+      <c r="P96" s="54">
         <f t="shared" si="10"/>
         <v>0.0742968622988132</v>
       </c>
-      <c r="Q96" s="30">
+      <c r="Q96" s="54">
         <f t="shared" si="10"/>
         <v>0.0732670140533712</v>
       </c>
     </row>
     <row r="97" spans="3:17">
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="30"/>
-      <c r="K97" s="30"/>
-      <c r="L97" s="30">
-        <f>L107/L108</f>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="54">
+        <f t="shared" ref="L97:Q97" si="11">L107/L108</f>
         <v>0.0665349143610013</v>
       </c>
-      <c r="M97" s="30">
-        <f>M107/M108</f>
+      <c r="M97" s="54">
+        <f t="shared" si="11"/>
         <v>0.0732631578947368</v>
       </c>
-      <c r="N97" s="30">
-        <f>N107/N108</f>
+      <c r="N97" s="54">
+        <f t="shared" si="11"/>
         <v>0.0701095461658842</v>
       </c>
-      <c r="O97" s="30">
-        <f>O107/O108</f>
+      <c r="O97" s="54">
+        <f t="shared" si="11"/>
         <v>0.0712771595124536</v>
       </c>
-      <c r="P97" s="30">
-        <f>P107/P108</f>
+      <c r="P97" s="54">
+        <f t="shared" si="11"/>
         <v>0.0713962946226841</v>
       </c>
-      <c r="Q97" s="30">
-        <f>Q107/Q108</f>
+      <c r="Q97" s="54">
+        <f t="shared" si="11"/>
         <v>0.0700954861111111</v>
       </c>
     </row>
     <row r="98" spans="3:17">
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="30"/>
-      <c r="L98" s="30"/>
-      <c r="M98" s="30"/>
-      <c r="N98" s="30">
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
+      <c r="K98" s="54"/>
+      <c r="L98" s="54"/>
+      <c r="M98" s="54"/>
+      <c r="N98" s="54">
         <f>N109/N110</f>
         <v>0.0609756097560976</v>
       </c>
-      <c r="O98" s="30">
+      <c r="O98" s="54">
         <f>O109/O110</f>
         <v>0.0679056468906362</v>
       </c>
-      <c r="P98" s="30">
+      <c r="P98" s="54">
         <f>P109/P110</f>
         <v>0.0692345197464651</v>
       </c>
-      <c r="Q98" s="30">
+      <c r="Q98" s="54">
         <f>Q109/Q110</f>
         <v>0.0667263770712047</v>
       </c>
     </row>
     <row r="99" spans="3:17">
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="30"/>
-      <c r="L99" s="30"/>
-      <c r="M99" s="30"/>
-      <c r="N99" s="30"/>
-      <c r="O99" s="30"/>
-      <c r="P99" s="30"/>
-      <c r="Q99" s="30">
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="54"/>
+      <c r="N99" s="54"/>
+      <c r="O99" s="54"/>
+      <c r="P99" s="54"/>
+      <c r="Q99" s="54">
         <f>Q91/Q93</f>
         <v>0.0384615384615385</v>
       </c>
@@ -4048,51 +4141,51 @@
         <v>3</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103:Q103" si="11">F91+E103</f>
+        <f t="shared" ref="F103:Q103" si="12">F91+E103</f>
         <v>7</v>
       </c>
       <c r="G103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="H103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="I103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
       <c r="J103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="K103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>171</v>
       </c>
       <c r="L103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>272</v>
       </c>
       <c r="M103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>345</v>
       </c>
       <c r="N103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>395</v>
       </c>
       <c r="O103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>440</v>
       </c>
       <c r="P103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>487</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>494</v>
       </c>
     </row>
@@ -4102,51 +4195,51 @@
         <v>31</v>
       </c>
       <c r="F104">
-        <f t="shared" ref="F104:Q104" si="12">F93+E104</f>
+        <f t="shared" ref="F104:Q104" si="13">F93+E104</f>
         <v>89</v>
       </c>
       <c r="G104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>152</v>
       </c>
       <c r="H104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>231</v>
       </c>
       <c r="I104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>602</v>
       </c>
       <c r="J104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>950</v>
       </c>
       <c r="K104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1956</v>
       </c>
       <c r="L104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3474</v>
       </c>
       <c r="M104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4331</v>
       </c>
       <c r="N104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5151</v>
       </c>
       <c r="O104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5730</v>
       </c>
       <c r="P104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6382</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6564</v>
       </c>
     </row>
@@ -4156,35 +4249,35 @@
         <v>32</v>
       </c>
       <c r="J105">
-        <f t="shared" ref="J105:Q105" si="13">J91+I105</f>
+        <f t="shared" ref="J105:Q105" si="14">J91+I105</f>
         <v>49</v>
       </c>
       <c r="K105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>141</v>
       </c>
       <c r="L105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>242</v>
       </c>
       <c r="M105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="N105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>365</v>
       </c>
       <c r="O105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>410</v>
       </c>
       <c r="P105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>457</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>464</v>
       </c>
     </row>
@@ -4194,35 +4287,35 @@
         <v>371</v>
       </c>
       <c r="J106">
-        <f t="shared" ref="J106:Q106" si="14">J93+I106</f>
+        <f t="shared" ref="J106:Q106" si="15">J93+I106</f>
         <v>719</v>
       </c>
       <c r="K106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1725</v>
       </c>
       <c r="L106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3243</v>
       </c>
       <c r="M106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4100</v>
       </c>
       <c r="N106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4920</v>
       </c>
       <c r="O106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5499</v>
       </c>
       <c r="P106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6151</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6333</v>
       </c>
     </row>
@@ -4335,14 +4428,439 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="12.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="11.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="10.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="12.8571428571429"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="25">
+        <f t="shared" ref="B2:B5" si="0">0.3*K15</f>
+        <v>3.8754</v>
+      </c>
+      <c r="C2" s="26">
+        <f t="shared" ref="C2:C5" si="1">E15-D2</f>
+        <v>6309</v>
+      </c>
+      <c r="D2" s="26">
+        <f t="shared" ref="D2:D5" si="2">ROUND(E15/(1+B2),0)</f>
+        <v>1628</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28">
+        <f t="shared" ref="F2:F5" si="3">H15+C2</f>
+        <v>8040</v>
+      </c>
+      <c r="G2" s="28">
+        <f t="shared" ref="G2:G5" si="4">I15+D2</f>
+        <v>1762</v>
+      </c>
+      <c r="H2" s="29">
+        <f t="shared" ref="H2:H5" si="5">F2/G2</f>
+        <v>4.56299659477866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="25">
+        <f t="shared" si="0"/>
+        <v>3.3306</v>
+      </c>
+      <c r="C3" s="26">
+        <f t="shared" si="1"/>
+        <v>877</v>
+      </c>
+      <c r="D3" s="26">
+        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28">
+        <f t="shared" si="3"/>
+        <v>10658</v>
+      </c>
+      <c r="G3" s="28">
+        <f t="shared" si="4"/>
+        <v>1144</v>
+      </c>
+      <c r="H3" s="29">
+        <f t="shared" si="5"/>
+        <v>9.31643356643357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="25">
+        <f t="shared" si="0"/>
+        <v>6.2799</v>
+      </c>
+      <c r="C4" s="26">
+        <f t="shared" si="1"/>
+        <v>524</v>
+      </c>
+      <c r="D4" s="26">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28">
+        <f t="shared" si="3"/>
+        <v>9881</v>
+      </c>
+      <c r="G4" s="28">
+        <f t="shared" si="4"/>
+        <v>530</v>
+      </c>
+      <c r="H4" s="29">
+        <f t="shared" si="5"/>
+        <v>18.6433962264151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="25">
+        <f t="shared" si="0"/>
+        <v>12.348</v>
+      </c>
+      <c r="C5" s="26">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D5" s="26">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28">
+        <f t="shared" si="3"/>
+        <v>1078</v>
+      </c>
+      <c r="G5" s="28">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="H5" s="29">
+        <f t="shared" si="5"/>
+        <v>37.1724137931034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="32">
+        <f>SUM(B2:B6)</f>
+        <v>25.8339</v>
+      </c>
+      <c r="C7" s="33">
+        <f>SUM(C2:C6)</f>
+        <v>7759</v>
+      </c>
+      <c r="D7" s="33">
+        <f>SUM(D2:D6)</f>
+        <v>1978</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="33">
+        <f>SUM(F2:F6)</f>
+        <v>29657</v>
+      </c>
+      <c r="G7" s="33">
+        <f>SUM(G2:G6)</f>
+        <v>3465</v>
+      </c>
+      <c r="H7" s="34">
+        <f>F7/G7</f>
+        <v>8.55901875901876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="37">
+        <v>9802</v>
+      </c>
+      <c r="C15" s="39">
+        <v>0.2959</v>
+      </c>
+      <c r="D15" s="37">
+        <v>1865</v>
+      </c>
+      <c r="E15" s="37">
+        <v>7937</v>
+      </c>
+      <c r="F15" s="39">
+        <v>0.1903</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="40">
+        <v>1731</v>
+      </c>
+      <c r="I15" s="40">
+        <v>134</v>
+      </c>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40">
+        <v>12.918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="37">
+        <v>11802</v>
+      </c>
+      <c r="C16" s="39">
+        <v>0.3563</v>
+      </c>
+      <c r="D16" s="37">
+        <v>10662</v>
+      </c>
+      <c r="E16" s="37">
+        <v>1140</v>
+      </c>
+      <c r="F16" s="39">
+        <v>0.9034</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="40">
+        <v>9781</v>
+      </c>
+      <c r="I16" s="40">
+        <v>881</v>
+      </c>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40">
+        <v>11.102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37">
+        <v>10411</v>
+      </c>
+      <c r="C17" s="39">
+        <v>0.3143</v>
+      </c>
+      <c r="D17" s="37">
+        <v>9804</v>
+      </c>
+      <c r="E17" s="37">
+        <v>607</v>
+      </c>
+      <c r="F17" s="39">
+        <v>0.9417</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="40">
+        <v>9357</v>
+      </c>
+      <c r="I17" s="40">
+        <v>447</v>
+      </c>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40">
+        <v>20.933</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="37">
+        <v>1107</v>
+      </c>
+      <c r="C18" s="39">
+        <v>0.0334</v>
+      </c>
+      <c r="D18" s="37">
+        <v>1054</v>
+      </c>
+      <c r="E18" s="37">
+        <v>53</v>
+      </c>
+      <c r="F18" s="39">
+        <v>0.9521</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="40">
+        <v>1029</v>
+      </c>
+      <c r="I18" s="40">
+        <v>25</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40">
+        <v>41.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="40"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="37">
+        <v>33122</v>
+      </c>
+      <c r="C20" s="41">
+        <v>1.03</v>
+      </c>
+      <c r="D20" s="37">
+        <v>23385</v>
+      </c>
+      <c r="E20" s="37">
+        <v>9737</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0.706</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37">
+        <v>21898</v>
+      </c>
+      <c r="I20" s="37">
+        <v>1487</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="40">
+        <v>14.726</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -4352,16 +4870,1352 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1" s="14">
+        <v>21</v>
+      </c>
+      <c r="E1" s="14">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14">
+        <v>23</v>
+      </c>
+      <c r="G1" s="14">
+        <v>24</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="14">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14">
+        <v>8</v>
+      </c>
+      <c r="G2" s="14">
+        <v>15</v>
+      </c>
+      <c r="H2" s="14">
+        <v>32</v>
+      </c>
+      <c r="I2" s="14">
+        <v>17</v>
+      </c>
+      <c r="J2" s="14">
+        <v>92</v>
+      </c>
+      <c r="K2" s="14">
+        <v>101</v>
+      </c>
+      <c r="L2" s="14">
+        <v>73</v>
+      </c>
+      <c r="M2" s="14">
+        <v>50</v>
+      </c>
+      <c r="N2" s="14">
+        <v>45</v>
+      </c>
+      <c r="O2" s="14">
+        <v>47</v>
+      </c>
+      <c r="P2" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="14">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
+        <v>23</v>
+      </c>
+      <c r="D3" s="14">
+        <v>28</v>
+      </c>
+      <c r="E3" s="14">
+        <v>54</v>
+      </c>
+      <c r="F3" s="14">
+        <v>55</v>
+      </c>
+      <c r="G3" s="14">
+        <v>64</v>
+      </c>
+      <c r="H3" s="14">
+        <v>339</v>
+      </c>
+      <c r="I3" s="14">
+        <v>331</v>
+      </c>
+      <c r="J3" s="14">
+        <v>914</v>
+      </c>
+      <c r="K3" s="14">
+        <v>1417</v>
+      </c>
+      <c r="L3" s="14">
+        <v>784</v>
+      </c>
+      <c r="M3" s="14">
+        <v>770</v>
+      </c>
+      <c r="N3" s="14">
+        <v>534</v>
+      </c>
+      <c r="O3" s="14">
+        <v>605</v>
+      </c>
+      <c r="P3" s="14">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="14">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14">
+        <v>27</v>
+      </c>
+      <c r="D4" s="14">
+        <v>31</v>
+      </c>
+      <c r="E4" s="14">
+        <v>58</v>
+      </c>
+      <c r="F4" s="14">
+        <v>63</v>
+      </c>
+      <c r="G4" s="14">
+        <v>79</v>
+      </c>
+      <c r="H4" s="14">
+        <v>371</v>
+      </c>
+      <c r="I4" s="14">
+        <v>348</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1006</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1518</v>
+      </c>
+      <c r="L4" s="14">
+        <v>857</v>
+      </c>
+      <c r="M4" s="14">
+        <v>820</v>
+      </c>
+      <c r="N4" s="14">
+        <v>579</v>
+      </c>
+      <c r="O4" s="14">
+        <v>652</v>
+      </c>
+      <c r="P4" s="14">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.134328358208955</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.104</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.111702127659574</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.134831460674157</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.106583072100313</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0.0862068965517241</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0.088855421686747</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0.0792022792022792</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0.0803755438516144</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0.0773086562560247</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0.0773499826569546</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0.0768152072296666</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0.0757575757575758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="15">
+        <v>0.0967741935483871</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.0786516853932584</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.0986842105263158</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.12987012987013</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0.102990033222591</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.0831578947368421</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.0874233128834356</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.0782959124928037</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0.0796582775340568</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0.0766841390021355</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0.0767888307155323</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.0763083672829834</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0.0752589884216941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="15">
+        <v>0.0862533692722372</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.0681502086230876</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.0817391304347826</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.0746222633364169</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0.0768292682926829</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0.0741869918699187</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0.0745590107292235</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0.0742968622988132</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0.0732670140533712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="15">
+        <v>0.0665349143610013</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0.0732631578947368</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0.0701095461658842</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0.0712771595124536</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0.0713962946226841</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0.0700954861111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="15">
+        <v>0.0609756097560976</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0.0679056468906362</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.0692345197464651</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0.0667263770712047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="15">
+        <v>0.0384615384615385</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="30.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="14.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="12.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="10.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="6.85714285714286" customWidth="1"/>
+    <col min="7" max="7" width="6.42857142857143" customWidth="1"/>
+    <col min="8" max="8" width="14"/>
+    <col min="9" max="9" width="12.8571428571429"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.486</v>
+      </c>
+      <c r="D2" s="1">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.066</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.782</v>
+      </c>
+      <c r="G2" s="13">
+        <f t="shared" ref="G2:G5" si="0">C2-B2</f>
+        <v>0.066</v>
+      </c>
+      <c r="H2" s="13">
+        <f t="shared" ref="H2:H5" si="1">LN(C2/B2)</f>
+        <v>0.14595391262308</v>
+      </c>
+      <c r="I2" s="13">
+        <f t="shared" ref="I2:I5" si="2">G2*H2</f>
+        <v>0.00963295823312327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.272</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-0.058</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-0.986</v>
+      </c>
+      <c r="G3" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.058</v>
+      </c>
+      <c r="H3" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.193290588164529</v>
+      </c>
+      <c r="I3" s="13">
+        <f t="shared" si="2"/>
+        <v>0.0112108541135427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-0.068</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-0.408</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.068</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.369747025506085</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" si="2"/>
+        <v>0.0251427977344138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" si="1"/>
+        <v>1.09861228866811</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" si="2"/>
+        <v>0.0659167373200866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1.288</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13">
+        <f>SUM(I2:I6)</f>
+        <v>0.111903347401166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="20.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="21.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="16.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="23.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="16.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1694</v>
+      </c>
+      <c r="C2" s="5">
+        <f>5979-D2-B2</f>
+        <v>189</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4096</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E5" si="0">SUM(B2:D2)</f>
+        <v>5979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5">
+        <v>394</v>
+      </c>
+      <c r="C3" s="5">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <f>495-C3-B3</f>
+        <v>89</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1731.1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>192.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4060.2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>5983.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1">
+        <v>357.1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>124.3</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>490.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1">
+        <f>SUM(B2:B5)</f>
+        <v>4176.2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>SUM(C2:C5)</f>
+        <v>402.3</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUM(D2:D5)</f>
+        <v>8369.5</v>
+      </c>
+      <c r="E6" s="1">
+        <f ca="1">SUM(E2:E6)</f>
+        <v>12948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="10">
+        <f>B2/$E2*100</f>
+        <v>28.3324970730891</v>
+      </c>
+      <c r="C8" s="10">
+        <f>C2/$E2*100</f>
+        <v>3.16106372303061</v>
+      </c>
+      <c r="D8" s="10">
+        <f>D2/$E2*100</f>
+        <v>68.5064392038802</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" ref="E8:E12" si="1">SUM(B8:D8)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="10">
+        <f>B3/$E3*100</f>
+        <v>79.5959595959596</v>
+      </c>
+      <c r="C9" s="10">
+        <f>C3/$E3*100</f>
+        <v>2.42424242424242</v>
+      </c>
+      <c r="D9" s="10">
+        <f>D3/$E3*100</f>
+        <v>17.979797979798</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="10">
+        <f>LN((B8/E8)/(B9/E9))</f>
+        <v>-1.03295388039815</v>
+      </c>
+      <c r="C10" s="10">
+        <f>LN((C8/E8)/(C9/E9))</f>
+        <v>0.265389518959428</v>
+      </c>
+      <c r="D10" s="10">
+        <f>LN((D8/E8)/(D9/E9))</f>
+        <v>1.33767895067499</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="10">
+        <f>B4/$E4*100</f>
+        <v>28.9302605411368</v>
+      </c>
+      <c r="C11" s="10">
+        <f>C4/$E4*100</f>
+        <v>3.21540184166987</v>
+      </c>
+      <c r="D11" s="10">
+        <f>D4/$E4*100</f>
+        <v>67.8543376171934</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="10">
+        <f>B5/$E5*100</f>
+        <v>72.8329594126045</v>
+      </c>
+      <c r="C12" s="10">
+        <f>C5/$E5*100</f>
+        <v>1.81521517438303</v>
+      </c>
+      <c r="D12" s="10">
+        <f>D5/$E5*100</f>
+        <v>25.3518254130124</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="10">
+        <f>LN(B11*$E11/(B12*$E12))</f>
+        <v>-0.923280467068269</v>
+      </c>
+      <c r="C13" s="10">
+        <f>LN(C11*$E11/(C12*$E12))</f>
+        <v>0.571748325442962</v>
+      </c>
+      <c r="D13" s="10">
+        <f>LN(D11*$E11/(D12*$E12))</f>
+        <v>0.984512577899019</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="5">
+        <f>(B10-B13)*20/LN(2)</f>
+        <v>-3.16450579056764</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-37.1</v>
+      </c>
+      <c r="D16" s="5">
+        <f>[1]Sheet1!$C$12820+B16</f>
+        <v>127.387157367327</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="5">
+        <f>(C10-C13)*20/LN(2)</f>
+        <v>-8.83964661692911</v>
+      </c>
+      <c r="C17" s="5">
+        <f>C2-C4</f>
+        <v>-3.40000000000001</v>
+      </c>
+      <c r="D17" s="5">
+        <f>[1]Sheet1!$C$12820+B17</f>
+        <v>121.712016540966</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10.19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>35.8</v>
+      </c>
+      <c r="D18" s="5">
+        <f>[1]Sheet1!$C$12820+B18</f>
+        <v>140.741663157895</v>
+      </c>
+      <c r="E18" s="5">
+        <f>2*((D2*LN(D2/D4))+(D3*LN(D3/D5)))</f>
+        <v>12.4517657178232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27:R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="8.28571428571429" customWidth="1"/>
+    <col min="5" max="5" width="12.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8117</v>
+      </c>
+      <c r="C2" s="1">
+        <v>84</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8033</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E9" si="0">C2/$B2</f>
+        <v>0.0103486509794259</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6432</v>
+      </c>
+      <c r="C3" s="1">
+        <v>134</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6298</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7897</v>
+      </c>
+      <c r="C4" s="1">
+        <v>795</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7102</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.100671140939597</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6737</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6535</v>
+      </c>
+      <c r="D5" s="1">
+        <v>202</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.970016327742318</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5984</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5893</v>
+      </c>
+      <c r="D6" s="1">
+        <v>91</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.984792780748663</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9791</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9687</v>
+      </c>
+      <c r="D7" s="1">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.989378000204269</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8479</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8403</v>
+      </c>
+      <c r="D8" s="1">
+        <v>76</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.991036678853638</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1">
+        <v>16841</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16770</v>
+      </c>
+      <c r="D9" s="1">
+        <v>71</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.995784098331453</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1">
+        <v>70278</v>
+      </c>
+      <c r="C11" s="1">
+        <v>48301</v>
+      </c>
+      <c r="D11" s="1">
+        <v>21977</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" ref="E11:E14" si="1">C11/B11</f>
+        <v>0.687284783289223</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="5">
+        <f>SUM(B5:B9)</f>
+        <v>47832</v>
+      </c>
+      <c r="C13" s="5">
+        <f>SUM(C5:C9)</f>
+        <v>47288</v>
+      </c>
+      <c r="D13" s="5">
+        <f>SUM(D5:D9)</f>
+        <v>544</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.988626860679043</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="5">
+        <f>B11-B13</f>
+        <v>22446</v>
+      </c>
+      <c r="C14" s="5">
+        <f>C11-C13</f>
+        <v>1013</v>
+      </c>
+      <c r="D14" s="5">
+        <f>D11-D13</f>
+        <v>21433</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.0451305355074401</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="8">
+        <f>C14/B14</f>
+        <v>0.0451305355074401</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="5">
+        <f>SUM(B4:B9)</f>
+        <v>55729</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUM(C4:C9)</f>
+        <v>48083</v>
+      </c>
+      <c r="D16" s="5">
+        <f>SUM(D4:D9)</f>
+        <v>7646</v>
+      </c>
+      <c r="E16" s="6">
+        <f>C16/B16</f>
+        <v>0.862800337346803</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="5">
+        <f>B11-B16</f>
+        <v>14549</v>
+      </c>
+      <c r="C17" s="5">
+        <f>C11-C16</f>
+        <v>218</v>
+      </c>
+      <c r="D17" s="5">
+        <f>D11-D16</f>
+        <v>14331</v>
+      </c>
+      <c r="E17" s="6">
+        <f>C17/B17</f>
+        <v>0.0149838476871263</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="8">
+        <f>B16/B11</f>
+        <v>0.792979310737357</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="B13:D13 B16:D16" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12210" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12210" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Q5Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="95">
   <si>
     <r>
       <rPr>
@@ -519,6 +519,9 @@
     <t>Below 215 Cut-off</t>
   </si>
   <si>
+    <t>Inference Factor=</t>
+  </si>
+  <si>
     <t>Cum Bad Rate</t>
   </si>
 </sst>
@@ -526,7 +529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -534,6 +537,7 @@
     <numFmt numFmtId="180" formatCode="0.000%"/>
     <numFmt numFmtId="181" formatCode="0.00_ "/>
     <numFmt numFmtId="182" formatCode="0_ "/>
+    <numFmt numFmtId="183" formatCode="0.0000"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1267,7 +1271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1307,9 +1311,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1355,23 +1356,17 @@
     <xf numFmtId="182" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1380,17 +1375,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1484,7 +1491,7 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{732A5AD5-B588-4C92-876B-92D77CE460ED}"/>
+    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{072E5887-88F0-4C2C-8D4D-5354D72E9724}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1775,8 +1782,8 @@
   <sheetPr/>
   <dimension ref="B1:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:I87"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1800,565 +1807,565 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="36" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="36"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="34">
         <v>9802</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="35">
         <v>0.2959</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="34">
         <v>1865</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="34">
         <v>7937</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="35">
         <v>0.1903</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="40">
+      <c r="H3" s="34"/>
+      <c r="I3" s="36">
         <v>1731</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="36">
         <v>134</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40">
+      <c r="K3" s="36"/>
+      <c r="L3" s="36">
         <v>12.918</v>
       </c>
     </row>
     <row r="4" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="34">
         <v>11802</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="35">
         <v>0.3563</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="34">
         <v>10662</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="34">
         <v>1140</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="35">
         <v>0.9034</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="40">
+      <c r="H4" s="34"/>
+      <c r="I4" s="36">
         <v>9781</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="36">
         <v>881</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40">
+      <c r="K4" s="36"/>
+      <c r="L4" s="36">
         <v>11.102</v>
       </c>
     </row>
     <row r="5" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="34">
         <v>10411</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="35">
         <v>0.3143</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="34">
         <v>9804</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="34">
         <v>607</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="35">
         <v>0.9417</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="40">
+      <c r="H5" s="34"/>
+      <c r="I5" s="36">
         <v>9357</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="36">
         <v>447</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40">
+      <c r="K5" s="36"/>
+      <c r="L5" s="36">
         <v>20.933</v>
       </c>
     </row>
     <row r="6" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="34">
         <v>1107</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="35">
         <v>0.0334</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="34">
         <v>1054</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="34">
         <v>53</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="35">
         <v>0.9521</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="40">
+      <c r="H6" s="34"/>
+      <c r="I6" s="36">
         <v>1029</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="36">
         <v>25</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40">
+      <c r="K6" s="36"/>
+      <c r="L6" s="36">
         <v>41.16</v>
       </c>
     </row>
     <row r="7" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B7" s="40"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
     </row>
     <row r="8" ht="14.5" customHeight="1" spans="2:12">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="34">
         <v>33122</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="38">
         <v>1.03</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="34">
         <v>23385</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="34">
         <v>9737</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="35">
         <v>0.706</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37">
+      <c r="H8" s="34"/>
+      <c r="I8" s="34">
         <v>21898</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="34">
         <v>1487</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="40">
+      <c r="K8" s="34"/>
+      <c r="L8" s="36">
         <v>14.726</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="44"/>
+      <c r="C11" s="45"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="46">
         <f>0.3*L3</f>
         <v>3.8754</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="47">
         <f>F3-E13</f>
         <v>6309</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="47">
         <f>ROUND(F3/(1+C13),0)</f>
         <v>1628</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="47">
+      <c r="F13" s="26"/>
+      <c r="G13" s="48">
         <f>I3+D13</f>
         <v>8040</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="48">
         <f>J3+E13</f>
         <v>1762</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="53">
         <f>G13/H13</f>
         <v>4.56299659477866</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="46">
         <f>0.3*L4</f>
         <v>3.3306</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="47">
         <f>F4-E14</f>
         <v>877</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="47">
         <f>ROUND(F4/(1+C14),0)</f>
         <v>263</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="47">
+      <c r="F14" s="26"/>
+      <c r="G14" s="48">
         <f>I4+D14</f>
         <v>10658</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="48">
         <f>J4+E14</f>
         <v>1144</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="53">
         <f>G14/H14</f>
         <v>9.31643356643357</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="46">
         <f>0.3*L5</f>
         <v>6.2799</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="47">
         <f>F5-E15</f>
         <v>524</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="47">
         <f>ROUND(F5/(1+C15),0)</f>
         <v>83</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="47">
+      <c r="F15" s="26"/>
+      <c r="G15" s="48">
         <f>I5+D15</f>
         <v>9881</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="48">
         <f>J5+E15</f>
         <v>530</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="53">
         <f>G15/H15</f>
         <v>18.6433962264151</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="46">
         <f>0.3*L6</f>
         <v>12.348</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="47">
         <f>F6-E16</f>
         <v>49</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="47">
         <f>ROUND(F6/(1+C16),0)</f>
         <v>4</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="47">
+      <c r="F16" s="26"/>
+      <c r="G16" s="48">
         <f>I6+D16</f>
         <v>1078</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="48">
         <f>J6+E16</f>
         <v>29</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="53">
         <f>G16/H16</f>
         <v>37.1724137931034</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <f>SUM(C13:C17)</f>
         <v>25.8339</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="31">
         <f>SUM(D13:D16)</f>
         <v>7759</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="31">
         <f>SUM(E13:E17)</f>
         <v>1978</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="33">
+      <c r="F18" s="22"/>
+      <c r="G18" s="31">
         <f>SUM(G13:G17)</f>
         <v>29657</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="31">
         <f>SUM(H13:H17)</f>
         <v>3465</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="42">
         <f>G18/H18</f>
         <v>8.55901875901876</v>
       </c>
     </row>
-    <row r="21" s="42" customFormat="1" spans="2:17">
-      <c r="B21" s="48" t="s">
+    <row r="21" s="43" customFormat="1" spans="2:17">
+      <c r="B21" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="50">
         <v>20</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="50">
         <v>21</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="50">
         <v>22</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="50">
         <v>23</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="50">
         <v>24</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="49" t="s">
+      <c r="K21" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="49" t="s">
+      <c r="L21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="49" t="s">
+      <c r="M21" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="49" t="s">
+      <c r="N21" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="O21" s="49" t="s">
+      <c r="O21" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P21" s="49" t="s">
+      <c r="P21" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="49" t="s">
+      <c r="Q21" s="50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" s="42" customFormat="1" spans="2:17">
-      <c r="B22" s="48" t="s">
+    <row r="22" s="43" customFormat="1" spans="2:17">
+      <c r="B22" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="50">
         <v>2</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="50">
         <v>4</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="50">
         <v>3</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="50">
         <v>4</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="50">
         <v>8</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="50">
         <v>15</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="50">
         <v>32</v>
       </c>
-      <c r="J22" s="49">
+      <c r="J22" s="50">
         <v>17</v>
       </c>
-      <c r="K22" s="49">
+      <c r="K22" s="50">
         <v>92</v>
       </c>
-      <c r="L22" s="49">
+      <c r="L22" s="50">
         <v>101</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="50">
         <v>73</v>
       </c>
-      <c r="N22" s="49">
+      <c r="N22" s="50">
         <v>50</v>
       </c>
-      <c r="O22" s="49">
+      <c r="O22" s="50">
         <v>45</v>
       </c>
-      <c r="P22" s="49">
+      <c r="P22" s="50">
         <v>47</v>
       </c>
-      <c r="Q22" s="49">
+      <c r="Q22" s="50">
         <v>7</v>
       </c>
     </row>
-    <row r="23" s="42" customFormat="1" spans="2:17">
-      <c r="B23" s="48" t="s">
+    <row r="23" s="43" customFormat="1" spans="2:17">
+      <c r="B23" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="50">
         <v>7</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="50">
         <v>23</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="50">
         <v>28</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="50">
         <v>54</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="50">
         <v>55</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="50">
         <v>64</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="50">
         <v>339</v>
       </c>
-      <c r="J23" s="49">
+      <c r="J23" s="50">
         <v>331</v>
       </c>
-      <c r="K23" s="49">
+      <c r="K23" s="50">
         <v>914</v>
       </c>
-      <c r="L23" s="49">
+      <c r="L23" s="50">
         <v>1417</v>
       </c>
-      <c r="M23" s="49">
+      <c r="M23" s="50">
         <v>784</v>
       </c>
-      <c r="N23" s="49">
+      <c r="N23" s="50">
         <v>770</v>
       </c>
-      <c r="O23" s="49">
+      <c r="O23" s="50">
         <v>534</v>
       </c>
-      <c r="P23" s="49">
+      <c r="P23" s="50">
         <v>605</v>
       </c>
-      <c r="Q23" s="49">
+      <c r="Q23" s="50">
         <v>175</v>
       </c>
     </row>
-    <row r="24" s="42" customFormat="1" spans="2:17">
+    <row r="24" s="43" customFormat="1" spans="2:17">
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
@@ -2423,145 +2430,145 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" s="43" customFormat="1" spans="2:17">
-      <c r="B25" s="43" t="s">
+    <row r="25" s="44" customFormat="1" spans="2:17">
+      <c r="B25" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="44">
         <f>C32/C33</f>
         <v>0.222222222222222</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="44">
         <f t="shared" ref="D25:Q25" si="1">D32/D33</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="44">
         <f t="shared" si="1"/>
         <v>0.134328358208955</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="44">
         <f t="shared" si="1"/>
         <v>0.104</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="44">
         <f t="shared" si="1"/>
         <v>0.111702127659574</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="44">
         <f t="shared" si="1"/>
         <v>0.134831460674157</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="44">
         <f t="shared" si="1"/>
         <v>0.106583072100313</v>
       </c>
-      <c r="J25" s="43">
+      <c r="J25" s="44">
         <f t="shared" si="1"/>
         <v>0.0862068965517241</v>
       </c>
-      <c r="K25" s="43">
+      <c r="K25" s="44">
         <f t="shared" si="1"/>
         <v>0.088855421686747</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="44">
         <f t="shared" si="1"/>
         <v>0.0792022792022792</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="44">
         <f t="shared" si="1"/>
         <v>0.0803755438516144</v>
       </c>
-      <c r="N25" s="43">
+      <c r="N25" s="44">
         <f t="shared" si="1"/>
         <v>0.0773086562560247</v>
       </c>
-      <c r="O25" s="43">
+      <c r="O25" s="44">
         <f t="shared" si="1"/>
         <v>0.0773499826569546</v>
       </c>
-      <c r="P25" s="43">
+      <c r="P25" s="44">
         <f t="shared" si="1"/>
         <v>0.0768152072296666</v>
       </c>
-      <c r="Q25" s="43">
+      <c r="Q25" s="44">
         <f t="shared" si="1"/>
         <v>0.0757575757575758</v>
       </c>
     </row>
-    <row r="26" s="43" customFormat="1" spans="8:17">
-      <c r="H26" s="43">
+    <row r="26" s="44" customFormat="1" spans="8:17">
+      <c r="H26" s="44">
         <f>H34/H35</f>
         <v>0.189873417721519</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="44">
         <f t="shared" ref="I26:Q26" si="2">I34/I35</f>
         <v>0.104444444444444</v>
       </c>
-      <c r="J26" s="43">
+      <c r="J26" s="44">
         <f t="shared" si="2"/>
         <v>0.0802005012531328</v>
       </c>
-      <c r="K26" s="43">
+      <c r="K26" s="44">
         <f t="shared" si="2"/>
         <v>0.0864745011086474</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L26" s="44">
         <f t="shared" si="2"/>
         <v>0.0773630343166767</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="44">
         <f t="shared" si="2"/>
         <v>0.0789662598707825</v>
       </c>
-      <c r="N26" s="43">
+      <c r="N26" s="44">
         <f t="shared" si="2"/>
         <v>0.0760152030406081</v>
       </c>
-      <c r="O26" s="43">
+      <c r="O26" s="44">
         <f t="shared" si="2"/>
         <v>0.0761921835783435</v>
       </c>
-      <c r="P26" s="43">
+      <c r="P26" s="44">
         <f t="shared" si="2"/>
         <v>0.0757624398073836</v>
       </c>
-      <c r="Q26" s="43">
+      <c r="Q26" s="44">
         <f t="shared" si="2"/>
         <v>0.0747036805988771</v>
       </c>
     </row>
-    <row r="27" s="43" customFormat="1" spans="12:17">
-      <c r="L27" s="43">
+    <row r="27" s="44" customFormat="1" spans="12:17">
+      <c r="L27" s="44">
         <f t="shared" ref="L27:Q27" si="3">L36/L37</f>
         <v>0.0665349143610013</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="44">
         <f t="shared" si="3"/>
         <v>0.0732631578947368</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N27" s="44">
         <f t="shared" si="3"/>
         <v>0.0701095461658842</v>
       </c>
-      <c r="O27" s="43">
+      <c r="O27" s="44">
         <f t="shared" si="3"/>
         <v>0.0712771595124536</v>
       </c>
-      <c r="P27" s="43">
+      <c r="P27" s="44">
         <f t="shared" si="3"/>
         <v>0.0713962946226841</v>
       </c>
-      <c r="Q27" s="43">
+      <c r="Q27" s="44">
         <f t="shared" si="3"/>
         <v>0.0700954861111111</v>
       </c>
     </row>
-    <row r="28" s="43" customFormat="1" spans="16:17">
-      <c r="P28" s="43">
+    <row r="28" s="44" customFormat="1" spans="16:17">
+      <c r="P28" s="44">
         <f>P38/P39</f>
         <v>0.0720858895705521</v>
       </c>
-      <c r="Q28" s="43">
+      <c r="Q28" s="44">
         <f>Q38/Q39</f>
         <v>0.0647482014388489</v>
       </c>
@@ -2863,13 +2870,13 @@
       <c r="G42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="44" t="s">
+      <c r="H42" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="44" t="s">
+      <c r="J42" s="45" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2892,15 +2899,15 @@
       <c r="G43" s="2">
         <v>1.782</v>
       </c>
-      <c r="H43" s="44">
+      <c r="H43" s="45">
         <f>D43-C43</f>
         <v>0.066</v>
       </c>
-      <c r="I43" s="44">
+      <c r="I43" s="45">
         <f>LN(D43/C43)</f>
         <v>0.14595391262308</v>
       </c>
-      <c r="J43" s="44">
+      <c r="J43" s="45">
         <f>H43*I43</f>
         <v>0.00963295823312327</v>
       </c>
@@ -2924,15 +2931,15 @@
       <c r="G44" s="2">
         <v>-0.986</v>
       </c>
-      <c r="H44" s="44">
+      <c r="H44" s="45">
         <f>D44-C44</f>
         <v>-0.058</v>
       </c>
-      <c r="I44" s="44">
+      <c r="I44" s="45">
         <f>LN(D44/C44)</f>
         <v>-0.193290588164529</v>
       </c>
-      <c r="J44" s="44">
+      <c r="J44" s="45">
         <f>H44*I44</f>
         <v>0.0112108541135427</v>
       </c>
@@ -2956,15 +2963,15 @@
       <c r="G45" s="2">
         <v>-0.408</v>
       </c>
-      <c r="H45" s="44">
+      <c r="H45" s="45">
         <f>D45-C45</f>
         <v>-0.068</v>
       </c>
-      <c r="I45" s="44">
+      <c r="I45" s="45">
         <f>LN(D45/C45)</f>
         <v>-0.369747025506085</v>
       </c>
-      <c r="J45" s="44">
+      <c r="J45" s="45">
         <f>H45*I45</f>
         <v>0.0251427977344138</v>
       </c>
@@ -2988,15 +2995,15 @@
       <c r="G46" s="2">
         <v>0.9</v>
       </c>
-      <c r="H46" s="44">
+      <c r="H46" s="45">
         <f>D46-C46</f>
         <v>0.06</v>
       </c>
-      <c r="I46" s="44">
+      <c r="I46" s="45">
         <f>LN(D46/C46)</f>
         <v>1.09861228866811</v>
       </c>
-      <c r="J46" s="44">
+      <c r="J46" s="45">
         <f>H46*I46</f>
         <v>0.0659167373200866</v>
       </c>
@@ -3008,9 +3015,9 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="2"/>
@@ -3021,9 +3028,9 @@
       <c r="G48" s="2">
         <v>1.288</v>
       </c>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44">
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45">
         <f>SUM(J43:J47)</f>
         <v>0.111903347401166</v>
       </c>
@@ -3145,127 +3152,127 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="42"/>
+      <c r="F57" s="43"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="50">
+      <c r="C58" s="51">
         <f>C52/$F52*100</f>
         <v>28.3324970730891</v>
       </c>
-      <c r="D58" s="50">
+      <c r="D58" s="51">
         <f>D52/$F52*100</f>
         <v>3.16106372303061</v>
       </c>
-      <c r="E58" s="50">
+      <c r="E58" s="51">
         <f>E52/$F52*100</f>
         <v>68.5064392038802</v>
       </c>
-      <c r="F58" s="51">
+      <c r="F58" s="52">
         <f>SUM(C58:E58)</f>
         <v>100</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="50">
+      <c r="C59" s="51">
         <f>C53/$F53*100</f>
         <v>79.5959595959596</v>
       </c>
-      <c r="D59" s="50">
+      <c r="D59" s="51">
         <f>D53/$F53*100</f>
         <v>2.42424242424242</v>
       </c>
-      <c r="E59" s="50">
+      <c r="E59" s="51">
         <f>E53/$F53*100</f>
         <v>17.979797979798</v>
       </c>
-      <c r="F59" s="51">
+      <c r="F59" s="52">
         <f>SUM(C59:E59)</f>
         <v>100</v>
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="50">
+      <c r="C60" s="51">
         <f>LN((C58/F58)/(C59/F59))</f>
         <v>-1.03295388039815</v>
       </c>
-      <c r="D60" s="50">
+      <c r="D60" s="51">
         <f>LN((D58/F58)/(D59/F59))</f>
         <v>0.265389518959428</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="51">
         <f>LN((E58/F58)/(E59/F59))</f>
         <v>1.33767895067499</v>
       </c>
-      <c r="F60" s="51"/>
+      <c r="F60" s="52"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="50">
+      <c r="C61" s="51">
         <f>C54/$F54*100</f>
         <v>28.9302605411368</v>
       </c>
-      <c r="D61" s="50">
+      <c r="D61" s="51">
         <f>D54/$F54*100</f>
         <v>3.21540184166987</v>
       </c>
-      <c r="E61" s="50">
+      <c r="E61" s="51">
         <f>E54/$F54*100</f>
         <v>67.8543376171934</v>
       </c>
-      <c r="F61" s="51">
+      <c r="F61" s="52">
         <f>SUM(C61:E61)</f>
         <v>100</v>
       </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="50">
+      <c r="C62" s="51">
         <f>C55/$F55*100</f>
         <v>72.8329594126045</v>
       </c>
-      <c r="D62" s="50">
+      <c r="D62" s="51">
         <f>D55/$F55*100</f>
         <v>1.81521517438303</v>
       </c>
-      <c r="E62" s="50">
+      <c r="E62" s="51">
         <f>E55/$F55*100</f>
         <v>25.3518254130124</v>
       </c>
-      <c r="F62" s="51">
+      <c r="F62" s="52">
         <f>SUM(C62:E62)</f>
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="50">
+      <c r="C63" s="51">
         <f>LN(C61*$F61/(C62*$F62))</f>
         <v>-0.923280467068269</v>
       </c>
-      <c r="D63" s="50">
+      <c r="D63" s="51">
         <f>LN(D61*$F61/(D62*$F62))</f>
         <v>0.571748325442962</v>
       </c>
-      <c r="E63" s="50">
+      <c r="E63" s="51">
         <f>LN(E61*$F61/(E62*$F62))</f>
         <v>0.984512577899019</v>
       </c>
-      <c r="F63" s="50"/>
+      <c r="F63" s="51"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="2"/>
@@ -3350,11 +3357,11 @@
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" s="2" t="s">
@@ -3389,7 +3396,7 @@
       <c r="E72" s="2">
         <v>8033</v>
       </c>
-      <c r="F72" s="53">
+      <c r="F72" s="54">
         <f>D72/$C72</f>
         <v>0.0103486509794259</v>
       </c>
@@ -3410,7 +3417,7 @@
       <c r="E73" s="2">
         <v>6298</v>
       </c>
-      <c r="F73" s="53">
+      <c r="F73" s="54">
         <f t="shared" ref="F73:F79" si="8">D73/$C73</f>
         <v>0.0208333333333333</v>
       </c>
@@ -3431,7 +3438,7 @@
       <c r="E74" s="2">
         <v>7102</v>
       </c>
-      <c r="F74" s="53">
+      <c r="F74" s="54">
         <f t="shared" si="8"/>
         <v>0.100671140939597</v>
       </c>
@@ -3452,7 +3459,7 @@
       <c r="E75" s="2">
         <v>202</v>
       </c>
-      <c r="F75" s="53">
+      <c r="F75" s="54">
         <f t="shared" si="8"/>
         <v>0.970016327742318</v>
       </c>
@@ -3473,7 +3480,7 @@
       <c r="E76" s="2">
         <v>91</v>
       </c>
-      <c r="F76" s="53">
+      <c r="F76" s="54">
         <f t="shared" si="8"/>
         <v>0.984792780748663</v>
       </c>
@@ -3494,7 +3501,7 @@
       <c r="E77" s="2">
         <v>104</v>
       </c>
-      <c r="F77" s="53">
+      <c r="F77" s="54">
         <f t="shared" si="8"/>
         <v>0.989378000204269</v>
       </c>
@@ -3515,7 +3522,7 @@
       <c r="E78" s="2">
         <v>76</v>
       </c>
-      <c r="F78" s="53">
+      <c r="F78" s="54">
         <f t="shared" si="8"/>
         <v>0.991036678853638</v>
       </c>
@@ -3536,7 +3543,7 @@
       <c r="E79" s="2">
         <v>71</v>
       </c>
-      <c r="F79" s="53">
+      <c r="F79" s="54">
         <f t="shared" si="8"/>
         <v>0.995784098331453</v>
       </c>
@@ -3549,7 +3556,7 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="53"/>
+      <c r="F80" s="54"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -3567,7 +3574,7 @@
       <c r="E81" s="2">
         <v>21977</v>
       </c>
-      <c r="F81" s="53">
+      <c r="F81" s="54">
         <f>D81/C81</f>
         <v>0.687284783289223</v>
       </c>
@@ -3580,7 +3587,7 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="53"/>
+      <c r="F82" s="54"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -3601,7 +3608,7 @@
         <f>SUM(E75:E79)</f>
         <v>544</v>
       </c>
-      <c r="F83" s="53">
+      <c r="F83" s="54">
         <f>D83/C83</f>
         <v>0.988626860679043</v>
       </c>
@@ -3627,12 +3634,12 @@
         <f>E81-E83</f>
         <v>21433</v>
       </c>
-      <c r="F84" s="53">
+      <c r="F84" s="54">
         <f>D84/C84</f>
         <v>0.0451305355074401</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="H84" s="53">
+      <c r="H84" s="54">
         <f>D84/C84</f>
         <v>0.0451305355074401</v>
       </c>
@@ -3643,7 +3650,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="53"/>
+      <c r="F85" s="54"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -3664,7 +3671,7 @@
         <f>SUM(E74:E79)</f>
         <v>7646</v>
       </c>
-      <c r="F86" s="53">
+      <c r="F86" s="54">
         <f>D86/C86</f>
         <v>0.862800337346803</v>
       </c>
@@ -3690,12 +3697,12 @@
         <f>E81-E86</f>
         <v>14331</v>
       </c>
-      <c r="F87" s="53">
+      <c r="F87" s="54">
         <f>D87/C87</f>
         <v>0.0149838476871263</v>
       </c>
       <c r="G87" s="2"/>
-      <c r="H87" s="53">
+      <c r="H87" s="54">
         <f>C86/C81</f>
         <v>0.792979310737357</v>
       </c>
@@ -3905,232 +3912,232 @@
       <c r="B94" t="s">
         <v>42</v>
       </c>
-      <c r="C94" s="54">
+      <c r="C94" s="55">
         <v>0.222222222222222</v>
       </c>
-      <c r="D94" s="54">
+      <c r="D94" s="55">
         <v>0.166666666666667</v>
       </c>
-      <c r="E94" s="54">
+      <c r="E94" s="55">
         <v>0.134328358208955</v>
       </c>
-      <c r="F94" s="54">
+      <c r="F94" s="55">
         <v>0.104</v>
       </c>
-      <c r="G94" s="54">
+      <c r="G94" s="55">
         <v>0.111702127659574</v>
       </c>
-      <c r="H94" s="54">
+      <c r="H94" s="55">
         <v>0.134831460674157</v>
       </c>
-      <c r="I94" s="54">
+      <c r="I94" s="55">
         <v>0.106583072100313</v>
       </c>
-      <c r="J94" s="54">
+      <c r="J94" s="55">
         <v>0.0862068965517241</v>
       </c>
-      <c r="K94" s="54">
+      <c r="K94" s="55">
         <v>0.088855421686747</v>
       </c>
-      <c r="L94" s="54">
+      <c r="L94" s="55">
         <v>0.0792022792022792</v>
       </c>
-      <c r="M94" s="54">
+      <c r="M94" s="55">
         <v>0.0803755438516144</v>
       </c>
-      <c r="N94" s="54">
+      <c r="N94" s="55">
         <v>0.0773086562560247</v>
       </c>
-      <c r="O94" s="54">
+      <c r="O94" s="55">
         <v>0.0773499826569546</v>
       </c>
-      <c r="P94" s="54">
+      <c r="P94" s="55">
         <v>0.0768152072296666</v>
       </c>
-      <c r="Q94" s="54">
+      <c r="Q94" s="55">
         <v>0.0757575757575758</v>
       </c>
     </row>
     <row r="95" spans="3:17">
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54">
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="55">
         <f t="shared" ref="E95:Q95" si="9">E103/E104</f>
         <v>0.0967741935483871</v>
       </c>
-      <c r="F95" s="54">
+      <c r="F95" s="55">
         <f t="shared" si="9"/>
         <v>0.0786516853932584</v>
       </c>
-      <c r="G95" s="54">
+      <c r="G95" s="55">
         <f t="shared" si="9"/>
         <v>0.0986842105263158</v>
       </c>
-      <c r="H95" s="54">
+      <c r="H95" s="55">
         <f t="shared" si="9"/>
         <v>0.12987012987013</v>
       </c>
-      <c r="I95" s="54">
+      <c r="I95" s="55">
         <f t="shared" si="9"/>
         <v>0.102990033222591</v>
       </c>
-      <c r="J95" s="54">
+      <c r="J95" s="55">
         <f t="shared" si="9"/>
         <v>0.0831578947368421</v>
       </c>
-      <c r="K95" s="54">
+      <c r="K95" s="55">
         <f t="shared" si="9"/>
         <v>0.0874233128834356</v>
       </c>
-      <c r="L95" s="54">
+      <c r="L95" s="55">
         <f t="shared" si="9"/>
         <v>0.0782959124928037</v>
       </c>
-      <c r="M95" s="54">
+      <c r="M95" s="55">
         <f t="shared" si="9"/>
         <v>0.0796582775340568</v>
       </c>
-      <c r="N95" s="54">
+      <c r="N95" s="55">
         <f t="shared" si="9"/>
         <v>0.0766841390021355</v>
       </c>
-      <c r="O95" s="54">
+      <c r="O95" s="55">
         <f t="shared" si="9"/>
         <v>0.0767888307155323</v>
       </c>
-      <c r="P95" s="54">
+      <c r="P95" s="55">
         <f t="shared" si="9"/>
         <v>0.0763083672829834</v>
       </c>
-      <c r="Q95" s="54">
+      <c r="Q95" s="55">
         <f t="shared" si="9"/>
         <v>0.0752589884216941</v>
       </c>
     </row>
     <row r="96" spans="3:17">
-      <c r="C96" s="54"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="54"/>
-      <c r="F96" s="54"/>
-      <c r="G96" s="54"/>
-      <c r="H96" s="54"/>
-      <c r="I96" s="54">
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="55">
         <f>I105/I106</f>
         <v>0.0862533692722372</v>
       </c>
-      <c r="J96" s="54">
+      <c r="J96" s="55">
         <f t="shared" ref="J96:Q96" si="10">J105/J106</f>
         <v>0.0681502086230876</v>
       </c>
-      <c r="K96" s="54">
+      <c r="K96" s="55">
         <f t="shared" si="10"/>
         <v>0.0817391304347826</v>
       </c>
-      <c r="L96" s="54">
+      <c r="L96" s="55">
         <f t="shared" si="10"/>
         <v>0.0746222633364169</v>
       </c>
-      <c r="M96" s="54">
+      <c r="M96" s="55">
         <f t="shared" si="10"/>
         <v>0.0768292682926829</v>
       </c>
-      <c r="N96" s="54">
+      <c r="N96" s="55">
         <f t="shared" si="10"/>
         <v>0.0741869918699187</v>
       </c>
-      <c r="O96" s="54">
+      <c r="O96" s="55">
         <f t="shared" si="10"/>
         <v>0.0745590107292235</v>
       </c>
-      <c r="P96" s="54">
+      <c r="P96" s="55">
         <f t="shared" si="10"/>
         <v>0.0742968622988132</v>
       </c>
-      <c r="Q96" s="54">
+      <c r="Q96" s="55">
         <f t="shared" si="10"/>
         <v>0.0732670140533712</v>
       </c>
     </row>
     <row r="97" spans="3:17">
-      <c r="C97" s="54"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="54">
+      <c r="C97" s="55"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="55"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="55">
         <f t="shared" ref="L97:Q97" si="11">L107/L108</f>
         <v>0.0665349143610013</v>
       </c>
-      <c r="M97" s="54">
+      <c r="M97" s="55">
         <f t="shared" si="11"/>
         <v>0.0732631578947368</v>
       </c>
-      <c r="N97" s="54">
+      <c r="N97" s="55">
         <f t="shared" si="11"/>
         <v>0.0701095461658842</v>
       </c>
-      <c r="O97" s="54">
+      <c r="O97" s="55">
         <f t="shared" si="11"/>
         <v>0.0712771595124536</v>
       </c>
-      <c r="P97" s="54">
+      <c r="P97" s="55">
         <f t="shared" si="11"/>
         <v>0.0713962946226841</v>
       </c>
-      <c r="Q97" s="54">
+      <c r="Q97" s="55">
         <f t="shared" si="11"/>
         <v>0.0700954861111111</v>
       </c>
     </row>
     <row r="98" spans="3:17">
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="54"/>
-      <c r="J98" s="54"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="54"/>
-      <c r="M98" s="54"/>
-      <c r="N98" s="54">
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="55"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="55"/>
+      <c r="M98" s="55"/>
+      <c r="N98" s="55">
         <f>N109/N110</f>
         <v>0.0609756097560976</v>
       </c>
-      <c r="O98" s="54">
+      <c r="O98" s="55">
         <f>O109/O110</f>
         <v>0.0679056468906362</v>
       </c>
-      <c r="P98" s="54">
+      <c r="P98" s="55">
         <f>P109/P110</f>
         <v>0.0692345197464651</v>
       </c>
-      <c r="Q98" s="54">
+      <c r="Q98" s="55">
         <f>Q109/Q110</f>
         <v>0.0667263770712047</v>
       </c>
     </row>
     <row r="99" spans="3:17">
-      <c r="C99" s="54"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="54"/>
-      <c r="M99" s="54"/>
-      <c r="N99" s="54"/>
-      <c r="O99" s="54"/>
-      <c r="P99" s="54"/>
-      <c r="Q99" s="54">
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="55"/>
+      <c r="P99" s="55"/>
+      <c r="Q99" s="55">
         <f>Q91/Q93</f>
         <v>0.0384615384615385</v>
       </c>
@@ -4428,438 +4435,445 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="12.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="11.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="10.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="12.8571428571429"/>
+    <col min="4" max="4" width="13.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="12.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="11.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="12.8571428571429"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22" t="s">
+    <row r="2" spans="2:12">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="22" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="24" t="s">
+      <c r="K2" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="40">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="25">
-        <f t="shared" ref="B2:B5" si="0">0.3*K15</f>
+      <c r="C3" s="24">
+        <f t="shared" ref="C3:C6" si="0">0.3*L16</f>
         <v>3.8754</v>
       </c>
-      <c r="C2" s="26">
-        <f t="shared" ref="C2:C5" si="1">E15-D2</f>
+      <c r="D3" s="25">
+        <f t="shared" ref="D3:D6" si="1">F16-E3</f>
         <v>6309</v>
       </c>
-      <c r="D2" s="26">
-        <f t="shared" ref="D2:D5" si="2">ROUND(E15/(1+B2),0)</f>
+      <c r="E3" s="25">
+        <f t="shared" ref="E3:E6" si="2">ROUND(F16/(1+C3),0)</f>
         <v>1628</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28">
-        <f t="shared" ref="F2:F5" si="3">H15+C2</f>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27">
+        <f t="shared" ref="G3:G6" si="3">I16+D3</f>
         <v>8040</v>
       </c>
-      <c r="G2" s="28">
-        <f t="shared" ref="G2:G5" si="4">I15+D2</f>
+      <c r="H3" s="27">
+        <f t="shared" ref="H3:H6" si="4">J16+E3</f>
         <v>1762</v>
       </c>
-      <c r="H2" s="29">
-        <f t="shared" ref="H2:H5" si="5">F2/G2</f>
+      <c r="I3" s="41">
+        <f t="shared" ref="I3:I6" si="5">G3/H3</f>
         <v>4.56299659477866</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="24" t="s">
+    <row r="4" spans="2:9">
+      <c r="B4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="25">
+      <c r="C4" s="24">
         <f t="shared" si="0"/>
         <v>3.3306</v>
       </c>
-      <c r="C3" s="26">
+      <c r="D4" s="25">
         <f t="shared" si="1"/>
         <v>877</v>
       </c>
-      <c r="D3" s="26">
+      <c r="E4" s="25">
         <f t="shared" si="2"/>
         <v>263</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28">
+      <c r="F4" s="26"/>
+      <c r="G4" s="27">
         <f t="shared" si="3"/>
         <v>10658</v>
       </c>
-      <c r="G3" s="28">
+      <c r="H4" s="27">
         <f t="shared" si="4"/>
         <v>1144</v>
       </c>
-      <c r="H3" s="29">
+      <c r="I4" s="41">
         <f t="shared" si="5"/>
         <v>9.31643356643357</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="24" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="25">
+      <c r="C5" s="24">
         <f t="shared" si="0"/>
         <v>6.2799</v>
       </c>
-      <c r="C4" s="26">
+      <c r="D5" s="25">
         <f t="shared" si="1"/>
         <v>524</v>
       </c>
-      <c r="D4" s="26">
+      <c r="E5" s="25">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28">
+      <c r="F5" s="26"/>
+      <c r="G5" s="27">
         <f t="shared" si="3"/>
         <v>9881</v>
       </c>
-      <c r="G4" s="28">
+      <c r="H5" s="27">
         <f t="shared" si="4"/>
         <v>530</v>
       </c>
-      <c r="H4" s="29">
+      <c r="I5" s="41">
         <f t="shared" si="5"/>
         <v>18.6433962264151</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="24" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="25">
+      <c r="C6" s="24">
         <f t="shared" si="0"/>
         <v>12.348</v>
       </c>
-      <c r="C5" s="26">
+      <c r="D6" s="25">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D5" s="26">
+      <c r="E6" s="25">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28">
+      <c r="F6" s="26"/>
+      <c r="G6" s="27">
         <f t="shared" si="3"/>
         <v>1078</v>
       </c>
-      <c r="G5" s="28">
+      <c r="H6" s="27">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="H5" s="29">
+      <c r="I6" s="41">
         <f t="shared" si="5"/>
         <v>37.1724137931034</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="2:9">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="32">
-        <f>SUM(B2:B6)</f>
-        <v>25.8339</v>
-      </c>
-      <c r="C7" s="33">
-        <f>SUM(C2:C6)</f>
+      <c r="C8" s="30">
+        <f>D8/E8</f>
+        <v>3.92264914054601</v>
+      </c>
+      <c r="D8" s="31">
+        <f>SUM(D3:D7)</f>
         <v>7759</v>
       </c>
-      <c r="D7" s="33">
-        <f>SUM(D2:D6)</f>
+      <c r="E8" s="31">
+        <f>SUM(E3:E7)</f>
         <v>1978</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="33">
-        <f>SUM(F2:F6)</f>
+      <c r="F8" s="22"/>
+      <c r="G8" s="31">
+        <f>SUM(G3:G7)</f>
         <v>29657</v>
       </c>
-      <c r="G7" s="33">
-        <f>SUM(G2:G6)</f>
+      <c r="H8" s="31">
+        <f>SUM(H3:H7)</f>
         <v>3465</v>
       </c>
-      <c r="H7" s="34">
-        <f>F7/G7</f>
+      <c r="I8" s="42">
+        <f>G8/H8</f>
         <v>8.55901875901876</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="35" t="s">
+    <row r="14" spans="2:12">
+      <c r="B14" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="C14" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="F14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="G14" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="36" t="s">
+      <c r="H14" s="34"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="36"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="37" t="s">
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="C15" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="D15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="E15" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="F15" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="G15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37" t="s">
+      <c r="H15" s="34"/>
+      <c r="I15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="J15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37" t="s">
+      <c r="K15" s="34"/>
+      <c r="L15" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="37" t="s">
+    <row r="16" spans="2:12">
+      <c r="B16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="37">
+      <c r="C16" s="34">
         <v>9802</v>
       </c>
-      <c r="C15" s="39">
+      <c r="D16" s="35">
         <v>0.2959</v>
       </c>
-      <c r="D15" s="37">
+      <c r="E16" s="34">
         <v>1865</v>
       </c>
-      <c r="E15" s="37">
+      <c r="F16" s="34">
         <v>7937</v>
       </c>
-      <c r="F15" s="39">
+      <c r="G16" s="35">
         <v>0.1903</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="40">
+      <c r="H16" s="34"/>
+      <c r="I16" s="36">
         <v>1731</v>
       </c>
-      <c r="I15" s="40">
+      <c r="J16" s="36">
         <v>134</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40">
+      <c r="K16" s="36"/>
+      <c r="L16" s="36">
         <v>12.918</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="37" t="s">
+    <row r="17" spans="2:12">
+      <c r="B17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="37">
+      <c r="C17" s="34">
         <v>11802</v>
       </c>
-      <c r="C16" s="39">
+      <c r="D17" s="35">
         <v>0.3563</v>
       </c>
-      <c r="D16" s="37">
+      <c r="E17" s="34">
         <v>10662</v>
       </c>
-      <c r="E16" s="37">
+      <c r="F17" s="34">
         <v>1140</v>
       </c>
-      <c r="F16" s="39">
+      <c r="G17" s="35">
         <v>0.9034</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="40">
+      <c r="H17" s="34"/>
+      <c r="I17" s="36">
         <v>9781</v>
       </c>
-      <c r="I16" s="40">
+      <c r="J17" s="36">
         <v>881</v>
       </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40">
+      <c r="K17" s="36"/>
+      <c r="L17" s="36">
         <v>11.102</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="37" t="s">
+    <row r="18" spans="2:12">
+      <c r="B18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="37">
+      <c r="C18" s="34">
         <v>10411</v>
       </c>
-      <c r="C17" s="39">
+      <c r="D18" s="35">
         <v>0.3143</v>
       </c>
-      <c r="D17" s="37">
+      <c r="E18" s="34">
         <v>9804</v>
       </c>
-      <c r="E17" s="37">
+      <c r="F18" s="34">
         <v>607</v>
       </c>
-      <c r="F17" s="39">
+      <c r="G18" s="35">
         <v>0.9417</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="40">
+      <c r="H18" s="34"/>
+      <c r="I18" s="36">
         <v>9357</v>
       </c>
-      <c r="I17" s="40">
+      <c r="J18" s="36">
         <v>447</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40">
+      <c r="K18" s="36"/>
+      <c r="L18" s="36">
         <v>20.933</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="37" t="s">
+    <row r="19" spans="2:12">
+      <c r="B19" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="37">
+      <c r="C19" s="34">
         <v>1107</v>
       </c>
-      <c r="C18" s="39">
+      <c r="D19" s="35">
         <v>0.0334</v>
       </c>
-      <c r="D18" s="37">
+      <c r="E19" s="34">
         <v>1054</v>
       </c>
-      <c r="E18" s="37">
+      <c r="F19" s="34">
         <v>53</v>
       </c>
-      <c r="F18" s="39">
+      <c r="G19" s="35">
         <v>0.9521</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="40">
+      <c r="H19" s="34"/>
+      <c r="I19" s="36">
         <v>1029</v>
       </c>
-      <c r="I18" s="40">
+      <c r="J19" s="36">
         <v>25</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40">
+      <c r="K19" s="36"/>
+      <c r="L19" s="36">
         <v>41.16</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="40"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="2:12">
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="37">
+      <c r="C21" s="34">
         <v>33122</v>
       </c>
-      <c r="C20" s="41">
+      <c r="D21" s="38">
         <v>1.03</v>
       </c>
-      <c r="D20" s="37">
+      <c r="E21" s="34">
         <v>23385</v>
       </c>
-      <c r="E20" s="37">
+      <c r="F21" s="34">
         <v>9737</v>
       </c>
-      <c r="F20" s="39">
+      <c r="G21" s="35">
         <v>0.706</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37">
+      <c r="H21" s="34"/>
+      <c r="I21" s="34">
         <v>21898</v>
       </c>
-      <c r="I20" s="37">
+      <c r="J21" s="34">
         <v>1487</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="40">
+      <c r="K21" s="34"/>
+      <c r="L21" s="36">
         <v>14.726</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4882,408 +4896,408 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="13">
         <v>20</v>
       </c>
-      <c r="D1" s="14">
+      <c r="D1" s="13">
         <v>21</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="13">
         <v>22</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <v>23</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G1" s="13">
         <v>24</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>2</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>4</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>3</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>4</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>8</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>15</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>32</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <v>17</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>92</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>101</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <v>73</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>50</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="13">
         <v>45</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="13">
         <v>47</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>7</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>23</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>28</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>54</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>55</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>64</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>339</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>331</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>914</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>1417</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>784</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="13">
         <v>770</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <v>534</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <v>605</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="13">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>9</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>27</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>31</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>58</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>63</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>79</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>371</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>348</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>1006</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>1518</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>857</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>820</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="13">
         <v>579</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="13">
         <v>652</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="13">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="15">
+      <c r="A5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="14">
         <v>0.222222222222222</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0.134328358208955</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>0.104</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>0.111702127659574</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>0.134831460674157</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>0.106583072100313</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>0.0862068965517241</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>0.088855421686747</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>0.0792022792022792</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>0.0803755438516144</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>0.0773086562560247</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>0.0773499826569546</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="14">
         <v>0.0768152072296666</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="14">
         <v>0.0757575757575758</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="14">
         <v>0.0967741935483871</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>0.0786516853932584</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>0.0986842105263158</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>0.12987012987013</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>0.102990033222591</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>0.0831578947368421</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <v>0.0874233128834356</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>0.0782959124928037</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>0.0796582775340568</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <v>0.0766841390021355</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <v>0.0767888307155323</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="14">
         <v>0.0763083672829834</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="14">
         <v>0.0752589884216941</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="15">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="14">
         <v>0.0862533692722372</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>0.0681502086230876</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <v>0.0817391304347826</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>0.0746222633364169</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <v>0.0768292682926829</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <v>0.0741869918699187</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <v>0.0745590107292235</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="14">
         <v>0.0742968622988132</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="14">
         <v>0.0732670140533712</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="15">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="14">
         <v>0.0665349143610013</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <v>0.0732631578947368</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <v>0.0701095461658842</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <v>0.0712771595124536</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="14">
         <v>0.0713962946226841</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="14">
         <v>0.0700954861111111</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="14">
         <v>0.0609756097560976</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <v>0.0679056468906362</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="14">
         <v>0.0692345197464651</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="14">
         <v>0.0667263770712047</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="15">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="14">
         <v>0.0384615384615385</v>
       </c>
     </row>
@@ -5361,15 +5375,15 @@
       <c r="F2" s="1">
         <v>1.782</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="5">
         <f t="shared" ref="G2:G5" si="0">C2-B2</f>
         <v>0.066</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="5">
         <f t="shared" ref="H2:H5" si="1">LN(C2/B2)</f>
         <v>0.14595391262308</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="5">
         <f t="shared" ref="I2:I5" si="2">G2*H2</f>
         <v>0.00963295823312327</v>
       </c>
@@ -5393,15 +5407,15 @@
       <c r="F3" s="1">
         <v>-0.986</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="5">
         <f t="shared" si="0"/>
         <v>-0.058</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="5">
         <f t="shared" si="1"/>
         <v>-0.193290588164529</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="5">
         <f t="shared" si="2"/>
         <v>0.0112108541135427</v>
       </c>
@@ -5425,15 +5439,15 @@
       <c r="F4" s="1">
         <v>-0.408</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>-0.068</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="5">
         <f t="shared" si="1"/>
         <v>-0.369747025506085</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="5">
         <f t="shared" si="2"/>
         <v>0.0251427977344138</v>
       </c>
@@ -5457,15 +5471,15 @@
       <c r="F5" s="1">
         <v>0.9</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
         <v>1.09861228866811</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="5">
         <f t="shared" si="2"/>
         <v>0.0659167373200866</v>
       </c>
@@ -5492,7 +5506,7 @@
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="13">
+      <c r="I7" s="5">
         <f>SUM(I2:I6)</f>
         <v>0.111903347401166</v>
       </c>
@@ -5506,339 +5520,339 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="21.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="16.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="23.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="16.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="20.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="16.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="23.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="16.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C3" s="1">
         <v>1694</v>
       </c>
-      <c r="C2" s="5">
-        <f>5979-D2-B2</f>
+      <c r="D3" s="5">
+        <f>5979-E3-C3</f>
         <v>189</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E3" s="1">
         <v>4096</v>
       </c>
-      <c r="E2" s="1">
-        <f t="shared" ref="E2:E5" si="0">SUM(B2:D2)</f>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F6" si="0">SUM(C3:E3)</f>
         <v>5979</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="2:6">
+      <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="5">
+      <c r="C4" s="5">
         <v>394</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D4" s="5">
         <v>12</v>
       </c>
-      <c r="D3" s="5">
-        <f>495-C3-B3</f>
+      <c r="E4" s="5">
+        <f>495-D4-C4</f>
         <v>89</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="2:6">
+      <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C5" s="1">
         <v>1731.1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D5" s="1">
         <v>192.4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E5" s="1">
         <v>4060.2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>5983.7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="2:6">
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C6" s="1">
         <v>357.1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D6" s="1">
         <v>8.9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E6" s="1">
         <v>124.3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>490.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="2:6">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1">
-        <f>SUM(B2:B5)</f>
+      <c r="C7" s="1">
+        <f>SUM(C3:C6)</f>
         <v>4176.2</v>
       </c>
-      <c r="C6" s="1">
-        <f>SUM(C2:C5)</f>
+      <c r="D7" s="1">
+        <f>SUM(D3:D6)</f>
         <v>402.3</v>
       </c>
-      <c r="D6" s="1">
-        <f>SUM(D2:D5)</f>
+      <c r="E7" s="1">
+        <f>SUM(E3:E6)</f>
         <v>8369.5</v>
       </c>
-      <c r="E6" s="1">
-        <f ca="1">SUM(E2:E6)</f>
+      <c r="F7" s="1">
+        <f ca="1">SUM(F3:F7)</f>
         <v>12948</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="2:6">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="10">
-        <f>B2/$E2*100</f>
+      <c r="C9" s="10">
+        <f>C3/$F3*100</f>
         <v>28.3324970730891</v>
       </c>
-      <c r="C8" s="10">
-        <f>C2/$E2*100</f>
+      <c r="D9" s="10">
+        <f>D3/$F3*100</f>
         <v>3.16106372303061</v>
       </c>
-      <c r="D8" s="10">
-        <f>D2/$E2*100</f>
+      <c r="E9" s="10">
+        <f>E3/$F3*100</f>
         <v>68.5064392038802</v>
       </c>
-      <c r="E8" s="11">
-        <f t="shared" ref="E8:E12" si="1">SUM(B8:D8)</f>
+      <c r="F9" s="11">
+        <f t="shared" ref="F9:F13" si="1">SUM(C9:E9)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="2:6">
+      <c r="B10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="10">
-        <f>B3/$E3*100</f>
+      <c r="C10" s="10">
+        <f>C4/$F4*100</f>
         <v>79.5959595959596</v>
       </c>
-      <c r="C9" s="10">
-        <f>C3/$E3*100</f>
+      <c r="D10" s="10">
+        <f>D4/$F4*100</f>
         <v>2.42424242424242</v>
       </c>
-      <c r="D9" s="10">
-        <f>D3/$E3*100</f>
+      <c r="E10" s="10">
+        <f>E4/$F4*100</f>
         <v>17.979797979798</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
+    <row r="11" spans="2:6">
+      <c r="B11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="10">
-        <f>LN((B8/E8)/(B9/E9))</f>
+      <c r="C11" s="10">
+        <f>LN((C9/F9)/(C10/F10))</f>
         <v>-1.03295388039815</v>
       </c>
-      <c r="C10" s="10">
-        <f>LN((C8/E8)/(C9/E9))</f>
+      <c r="D11" s="10">
+        <f>LN((D9/F9)/(D10/F10))</f>
         <v>0.265389518959428</v>
       </c>
-      <c r="D10" s="10">
-        <f>LN((D8/E8)/(D9/E9))</f>
+      <c r="E11" s="10">
+        <f>LN((E9/F9)/(E10/F10))</f>
         <v>1.33767895067499</v>
       </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10" t="s">
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="10">
-        <f>B4/$E4*100</f>
+      <c r="C12" s="10">
+        <f>C5/$F5*100</f>
         <v>28.9302605411368</v>
       </c>
-      <c r="C11" s="10">
-        <f>C4/$E4*100</f>
+      <c r="D12" s="10">
+        <f>D5/$F5*100</f>
         <v>3.21540184166987</v>
       </c>
-      <c r="D11" s="10">
-        <f>D4/$E4*100</f>
+      <c r="E12" s="10">
+        <f>E5/$F5*100</f>
         <v>67.8543376171934</v>
       </c>
-      <c r="E11" s="11">
+      <c r="F12" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+    <row r="13" spans="2:6">
+      <c r="B13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="10">
-        <f>B5/$E5*100</f>
+      <c r="C13" s="10">
+        <f>C6/$F6*100</f>
         <v>72.8329594126045</v>
       </c>
-      <c r="C12" s="10">
-        <f>C5/$E5*100</f>
+      <c r="D13" s="10">
+        <f>D6/$F6*100</f>
         <v>1.81521517438303</v>
       </c>
-      <c r="D12" s="10">
-        <f>D5/$E5*100</f>
+      <c r="E13" s="10">
+        <f>E6/$F6*100</f>
         <v>25.3518254130124</v>
       </c>
-      <c r="E12" s="11">
+      <c r="F13" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
+    <row r="14" spans="2:6">
+      <c r="B14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="10">
-        <f>LN(B11*$E11/(B12*$E12))</f>
+      <c r="C14" s="10">
+        <f>LN(C12*$F12/(C13*$F13))</f>
         <v>-0.923280467068269</v>
       </c>
-      <c r="C13" s="10">
-        <f>LN(C11*$E11/(C12*$E12))</f>
+      <c r="D14" s="10">
+        <f>LN(D12*$F12/(D13*$F13))</f>
         <v>0.571748325442962</v>
       </c>
-      <c r="D13" s="10">
-        <f>LN(D11*$E11/(D12*$E12))</f>
+      <c r="E14" s="10">
+        <f>LN(E12*$F12/(E13*$F13))</f>
         <v>0.984512577899019</v>
       </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="5">
-        <f>(B10-B13)*20/LN(2)</f>
+      <c r="C17" s="5">
+        <f>(C11-C14)*20/LN(2)</f>
         <v>-3.16450579056764</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D17" s="1">
         <v>-37.1</v>
       </c>
-      <c r="D16" s="5">
-        <f>[1]Sheet1!$C$12820+B16</f>
-        <v>127.387157367327</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="E17" s="5">
+        <f>ROUND(C17,0)</f>
+        <v>-3</v>
+      </c>
+      <c r="F17" s="1">
         <v>4.09</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="2:6">
+      <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="5">
-        <f>(C10-C13)*20/LN(2)</f>
+      <c r="C18" s="5">
+        <f>(D11-D14)*20/LN(2)</f>
         <v>-8.83964661692911</v>
       </c>
-      <c r="C17" s="5">
-        <f>C2-C4</f>
+      <c r="D18" s="5">
+        <f>D3-D5</f>
         <v>-3.40000000000001</v>
       </c>
-      <c r="D17" s="5">
-        <f>[1]Sheet1!$C$12820+B17</f>
-        <v>121.712016540966</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="E18" s="5">
+        <f>ROUND(C18,0)</f>
+        <v>-9</v>
+      </c>
+      <c r="F18" s="1">
         <v>0.43</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="2:6">
+      <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C19" s="1">
         <v>10.19</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D19" s="1">
         <v>35.8</v>
       </c>
-      <c r="D18" s="5">
-        <f>[1]Sheet1!$C$12820+B18</f>
-        <v>140.741663157895</v>
-      </c>
-      <c r="E18" s="5">
-        <f>2*((D2*LN(D2/D4))+(D3*LN(D3/D5)))</f>
+      <c r="E19" s="5">
+        <f>ROUND(C19,0)</f>
+        <v>10</v>
+      </c>
+      <c r="F19" s="5">
+        <f>2*((E3*LN(E3/E5))+(E4*LN(E4/E6)))</f>
         <v>12.4517657178232</v>
       </c>
     </row>
@@ -5853,7 +5867,7 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27:R27"/>
     </sheetView>
   </sheetViews>
@@ -6215,7 +6229,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B13:D13 B16:D16" formulaRange="1"/>
+    <ignoredError sqref="B16:D16 B13:D13" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>